--- a/Results/Accuracies.xlsx
+++ b/Results/Accuracies.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7155" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Accuracies + Sens 3 Classes" sheetId="2" r:id="rId1"/>
@@ -944,7 +944,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="45">
   <si>
     <t>PreCourse</t>
   </si>
@@ -1022,6 +1022,63 @@
   </si>
   <si>
     <t>Random Forest Fail Sensitivities</t>
+  </si>
+  <si>
+    <t>LSTM Accuracies</t>
+  </si>
+  <si>
+    <t>LSTM Fail Sensitivities</t>
+  </si>
+  <si>
+    <t>LSTM (AUX non-normalized)  Fail Sensitivities</t>
+  </si>
+  <si>
+    <t>LSTM (AUX non normalized) Accuracies</t>
+  </si>
+  <si>
+    <t>Optimizer</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Batch</t>
+  </si>
+  <si>
+    <t>rmsprop</t>
+  </si>
+  <si>
+    <t>adam</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>LSTM (AUX  normalized) Accuracies</t>
+  </si>
+  <si>
+    <t>LSTM Accuracies (normalized)</t>
+  </si>
+  <si>
+    <t>LSTM Fail Sensitivities (normalized)</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>adaD</t>
+  </si>
+  <si>
+    <t>ES 5</t>
+  </si>
+  <si>
+    <t>ES 10</t>
+  </si>
+  <si>
+    <t>adadelta</t>
+  </si>
+  <si>
+    <t>ES 4k</t>
   </si>
 </sst>
 </file>
@@ -1269,16 +1326,16 @@
                   <c:v>0.73</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.77</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.78</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.75</c:v>
+                  <c:v>0.76</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.78</c:v>
+                  <c:v>0.79</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.81</c:v>
@@ -1330,25 +1387,25 @@
                   <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.68</c:v>
+                  <c:v>0.69</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.75</c:v>
+                  <c:v>0.74</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.76</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.76</c:v>
+                  <c:v>0.77</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.79</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.83</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1397,22 +1454,22 @@
                   <c:v>0.63</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.66</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.67</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.7</c:v>
+                  <c:v>0.69</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.72</c:v>
+                  <c:v>0.71</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.73</c:v>
+                  <c:v>0.74</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.75</c:v>
@@ -1452,7 +1509,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.56999999999999995</c:v>
+                  <c:v>0.57999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.61</c:v>
@@ -1461,7 +1518,7 @@
                   <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.71</c:v>
+                  <c:v>0.69</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.73</c:v>
@@ -1482,7 +1539,7 @@
                   <c:v>0.79</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.82</c:v>
+                  <c:v>0.83</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1558,6 +1615,73 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-9E3F-4AF6-8CB4-EF99C2296BEB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>LSTM</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Accuracies + Sens 3 Classes'!$S$76:$AC$76</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-58E1-4789-8603-C475983508ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1967,37 +2091,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.17</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.52</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.55000000000000004</c:v>
+                  <c:v>0.44</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.84</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.98</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.94</c:v>
+                  <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.96</c:v>
+                  <c:v>0.48</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.88</c:v>
+                  <c:v>0.46</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.98</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.98</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2034,37 +2158,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.06</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.76</c:v>
+                  <c:v>0.27</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99</c:v>
+                  <c:v>0.27</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.9</c:v>
+                  <c:v>0.27</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.97</c:v>
+                  <c:v>0.27</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.91</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.97</c:v>
+                  <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.97</c:v>
+                  <c:v>0.34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2101,37 +2225,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.56000000000000005</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.7</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.69</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.84</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.81</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.86</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.94</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.94</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.94</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.94</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2168,37 +2292,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.21</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.49</c:v>
+                  <c:v>0.46</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.71</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.82</c:v>
+                  <c:v>0.76</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.86</c:v>
+                  <c:v>0.84</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.78</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.86</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.91</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.89</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2207,6 +2331,73 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-6698-4599-95E7-EE2D003E9F2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>LSTM</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Accuracies + Sens 2 Classes'!$B$85:$L$85</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.53</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-22DA-4CC5-B386-5D0EFBFE21E1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2515,7 +2706,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2617,16 +2807,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.18</c:v>
+                  <c:v>0.14000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.45</c:v>
+                  <c:v>0.79</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2</c:v>
+                  <c:v>0.19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.11</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.1</c:v>
@@ -2647,7 +2837,7 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.5</c:v>
+                  <c:v>0.46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2687,34 +2877,34 @@
                   <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35</c:v>
+                  <c:v>0.43</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.27</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.37</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.49</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.62</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.56999999999999995</c:v>
+                  <c:v>0.48</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.64</c:v>
+                  <c:v>0.52</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.57999999999999996</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2751,37 +2941,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.23</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.27</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35</c:v>
+                  <c:v>0.34</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.42</c:v>
+                  <c:v>0.39</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.55000000000000004</c:v>
+                  <c:v>0.49</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.57999999999999996</c:v>
+                  <c:v>0.51</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.67</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.67</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.7</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.77</c:v>
+                  <c:v>0.87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2818,37 +3008,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.21</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.39</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.43</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.48</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.73</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.62</c:v>
+                  <c:v>0.59</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.57999999999999996</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.74</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.61</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.71</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.7</c:v>
+                  <c:v>0.69</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2857,6 +3047,73 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-574D-4D22-A4AA-95F79F9EBD24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>LSTM</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Accuracies + Sens 2 Classes'!$B$86:$L$86</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C8AD-4665-9372-BC061297E919}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3054,7 +3311,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3165,7 +3421,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3267,37 +3522,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.25</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.46</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.48</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.51</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.56999999999999995</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.66</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.68</c:v>
+                  <c:v>0.63</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.75</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.77</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.79</c:v>
+                  <c:v>0.74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3334,37 +3589,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.22</c:v>
+                  <c:v>0.21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.31</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.47</c:v>
+                  <c:v>0.44</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.48</c:v>
+                  <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.53</c:v>
+                  <c:v>0.49</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.59</c:v>
+                  <c:v>0.54</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.67</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.69</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.79</c:v>
+                  <c:v>0.76</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.8</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.82</c:v>
+                  <c:v>0.78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3401,37 +3656,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.27</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.63</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.62</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.68</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.73</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.75</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.77</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.77</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.79</c:v>
+                  <c:v>0.74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3471,28 +3726,28 @@
                   <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.45</c:v>
+                  <c:v>0.44</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.57999999999999996</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.57999999999999996</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.62</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.68</c:v>
+                  <c:v>0.67</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.71</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.73</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.87</c:v>
+                  <c:v>0.88</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.85</c:v>
@@ -3507,6 +3762,73 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-E659-4DF5-A32E-929E35FF8F19}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>LSTM</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Accuracies + Sens 2 Classes'!$B$87:$L$87</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.83</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D1E7-45EE-B101-5B4DAF15442F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3704,7 +4026,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3920,34 +4241,34 @@
                   <c:v>0.61</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.33</c:v>
+                  <c:v>0.23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.4</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.27</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.42</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.32</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.33</c:v>
+                  <c:v>0.27</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.4</c:v>
+                  <c:v>0.28999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.38</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3987,34 +4308,34 @@
                   <c:v>0.63</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.53</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.47</c:v>
+                  <c:v>0.59</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.27</c:v>
+                  <c:v>0.57999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.31</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.54</c:v>
+                  <c:v>0.71</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.38</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.6</c:v>
+                  <c:v>0.74</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.45</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.42</c:v>
+                  <c:v>0.76</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4051,37 +4372,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.56000000000000005</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.39</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.42</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.39</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.46</c:v>
+                  <c:v>0.27</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.51</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.46</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.5</c:v>
+                  <c:v>0.34</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.52</c:v>
+                  <c:v>0.37</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.54</c:v>
+                  <c:v>0.38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4118,37 +4439,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.62</c:v>
+                  <c:v>0.61</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.52</c:v>
+                  <c:v>0.49</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.48</c:v>
+                  <c:v>0.47</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.47</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.45</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.52</c:v>
+                  <c:v>0.53</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.53</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.48</c:v>
+                  <c:v>0.51</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.55000000000000004</c:v>
+                  <c:v>0.56999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.56999999999999995</c:v>
+                  <c:v>0.59</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.57999999999999996</c:v>
+                  <c:v>0.59</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4224,6 +4545,73 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-A2D3-4F70-BBBF-47241E249B41}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>LSTM</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Accuracies + Sens 3 Classes'!$S$74:$AC$74</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.77</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1035-40AB-B1CA-2BDC8195AF77}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4633,37 +5021,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.61</c:v>
+                  <c:v>0.59</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.64</c:v>
+                  <c:v>0.57999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.57999999999999996</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.62</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.62</c:v>
+                  <c:v>0.49</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.65</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.74</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.71</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.71</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.72</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.84</c:v>
+                  <c:v>0.56999999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4700,34 +5088,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.61</c:v>
+                  <c:v>0.59</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.66</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.66</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.68</c:v>
-                </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.71</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.71</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>0.73</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.73</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.74</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.75</c:v>
@@ -4767,19 +5155,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.62</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.64</c:v>
+                  <c:v>0.63</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.63</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.56999999999999995</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.56000000000000005</c:v>
@@ -4791,13 +5179,13 @@
                   <c:v>0.59</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.6</c:v>
+                  <c:v>0.61</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.61</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.64</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4834,19 +5222,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.62</c:v>
+                  <c:v>0.61</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.66</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.68</c:v>
+                  <c:v>0.67</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.69</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.69</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.71</c:v>
@@ -4855,16 +5243,16 @@
                   <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.72</c:v>
+                  <c:v>0.73</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.75</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.76</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.82</c:v>
+                  <c:v>0.81</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4940,6 +5328,73 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-7BCE-4AD8-9107-0EC808539340}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>LSTM</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Accuracies + Sens 3 Classes'!$S$75:$AC$75</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5FC3-4430-9134-D1F6C6D22FCB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5349,37 +5804,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.22</c:v>
+                  <c:v>0.21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.52</c:v>
+                  <c:v>0.59</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.56999999999999995</c:v>
+                  <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.88</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99</c:v>
+                  <c:v>0.37</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.96</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.95</c:v>
+                  <c:v>0.36</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.99</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.99</c:v>
+                  <c:v>0.44</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.99</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.99</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5416,37 +5871,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.13</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.52</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.83</c:v>
+                  <c:v>0.43</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0.53</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.9</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.97</c:v>
+                  <c:v>0.36</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.92</c:v>
+                  <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.97</c:v>
+                  <c:v>0.49</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.98</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5483,37 +5938,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.08</c:v>
+                  <c:v>0.09</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.56000000000000005</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.79</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.71</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.87</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.82</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.86</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.94</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.94</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.94</c:v>
+                  <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.94</c:v>
+                  <c:v>0.98</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5556,28 +6011,28 @@
                   <c:v>0.51</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.74</c:v>
+                  <c:v>0.73</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.86</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.88</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.84</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.88</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.92</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.9</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.9</c:v>
+                  <c:v>0.89</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.92</c:v>
@@ -5589,6 +6044,73 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-9DE9-4268-AAF2-4EA93C5519BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>LSTM</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Accuracies + Sens 3 Classes'!$B$81:$L$81</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.93</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BA14-434C-957D-9078CFE056DA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5999,37 +6521,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.24</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.51</c:v>
+                  <c:v>0.76</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15</c:v>
+                  <c:v>0.44</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12</c:v>
+                  <c:v>0.37</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.11</c:v>
+                  <c:v>0.88</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.67</c:v>
+                  <c:v>0.71</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.87</c:v>
+                  <c:v>0.88</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.84</c:v>
+                  <c:v>0.86</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.85</c:v>
+                  <c:v>0.83</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.85</c:v>
+                  <c:v>0.56999999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6069,34 +6591,34 @@
                   <c:v>0.27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.38</c:v>
+                  <c:v>0.48</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35</c:v>
+                  <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.42</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.47</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.63</c:v>
+                  <c:v>0.51</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.59</c:v>
+                  <c:v>0.51</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.65</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.56999999999999995</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6133,37 +6655,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.2</c:v>
+                  <c:v>0.23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.32</c:v>
+                  <c:v>0.31</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.39</c:v>
+                  <c:v>0.36</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.53</c:v>
+                  <c:v>0.46</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.56000000000000005</c:v>
+                  <c:v>0.49</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.55000000000000004</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.65</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.63</c:v>
+                  <c:v>0.54</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.67</c:v>
+                  <c:v>0.56999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.75</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6200,37 +6722,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.33</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.52</c:v>
+                  <c:v>0.47</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>0.46</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.52</c:v>
+                  <c:v>0.49</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.8</c:v>
+                  <c:v>0.77</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.65</c:v>
+                  <c:v>0.62</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.63</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.77</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.67</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.73</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.71</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6239,6 +6761,73 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-FE9D-4F84-9856-7CBCF790D8F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>LSTM</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Accuracies + Sens 3 Classes'!$B$82:$L$82</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D9EA-4862-AF9E-27AD5BC9C5D6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6649,37 +7238,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.34</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.46</c:v>
+                  <c:v>0.47</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.53</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.63</c:v>
+                  <c:v>0.56999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.71</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.73</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.78</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.78</c:v>
+                  <c:v>0.74</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.8</c:v>
+                  <c:v>0.77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6716,37 +7305,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.27</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33</c:v>
+                  <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.47</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.48</c:v>
+                  <c:v>0.43</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.53</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.59</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.67</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.68</c:v>
-                </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.78</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.79</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6783,37 +7372,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.59</c:v>
+                  <c:v>0.57999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.61</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.57999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.61</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.64</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.69</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.71</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.75</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.75</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.75</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6850,34 +7439,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.3</c:v>
+                  <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>0.49</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.61</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.61</c:v>
+                  <c:v>0.59</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.62</c:v>
+                  <c:v>0.63</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.69</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.73</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.74</c:v>
+                  <c:v>0.73</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.88</c:v>
+                  <c:v>0.87</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.87</c:v>
+                  <c:v>0.86</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.86</c:v>
@@ -6889,6 +7478,73 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-1FC6-43FF-8ACB-CD296CEB741F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>LSTM</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Accuracies + Sens 3 Classes'!$B$83:$L$83</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-04BC-4B39-B221-DEE95EC7DF6E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7197,7 +7853,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7299,7 +7954,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.75</c:v>
+                  <c:v>0.74</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.78</c:v>
@@ -7308,7 +7963,7 @@
                   <c:v>0.81</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.84</c:v>
+                  <c:v>0.83</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.85</c:v>
@@ -7320,16 +7975,16 @@
                   <c:v>0.88</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.89</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.88</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.93</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7381,22 +8036,22 @@
                   <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.87</c:v>
+                  <c:v>0.86</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.89</c:v>
+                  <c:v>0.88</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.89</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.91</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.94</c:v>
+                  <c:v>0.93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7433,34 +8088,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.73</c:v>
+                  <c:v>0.74</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.73</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.76</c:v>
+                  <c:v>0.77</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.78</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.82</c:v>
+                  <c:v>0.83</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.83</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.85</c:v>
+                  <c:v>0.86</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.85</c:v>
+                  <c:v>0.86</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.85</c:v>
+                  <c:v>0.86</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.87</c:v>
+                  <c:v>0.88</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.9</c:v>
@@ -7509,16 +8164,16 @@
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.84</c:v>
+                  <c:v>0.83</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.86</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.87</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.89</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.9</c:v>
@@ -7606,6 +8261,73 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-2927-45A8-BEF8-5ECC0CD7CA00}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>LSTM</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Accuracies + Sens 2 Classes'!$R$76:$AB$76</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7CDB-4007-AA59-AFF53C28E1A3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7802,7 +8524,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8018,34 +8739,34 @@
                   <c:v>0.74</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.57999999999999996</c:v>
+                  <c:v>0.47</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.59</c:v>
+                  <c:v>0.67</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.52</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.71</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.43</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.56999999999999995</c:v>
+                  <c:v>0.84</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.47</c:v>
+                  <c:v>0.86</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.64</c:v>
+                  <c:v>0.86</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.47</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.45</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8085,34 +8806,34 @@
                   <c:v>0.74</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.61</c:v>
+                  <c:v>0.76</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.56999999999999995</c:v>
+                  <c:v>0.76</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.39</c:v>
+                  <c:v>0.79</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.28999999999999998</c:v>
+                  <c:v>0.78</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.39</c:v>
+                  <c:v>0.81</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.61</c:v>
+                  <c:v>0.81</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.46</c:v>
+                  <c:v>0.81</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.69</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.56000000000000005</c:v>
+                  <c:v>0.83</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.5</c:v>
+                  <c:v>0.83</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8152,34 +8873,34 @@
                   <c:v>0.73</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.57999999999999996</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.54</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.59</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.57999999999999996</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6</c:v>
+                  <c:v>0.28999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.51</c:v>
+                  <c:v>0.31</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.56000000000000005</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.57999999999999996</c:v>
+                  <c:v>0.39</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.6</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8219,34 +8940,34 @@
                   <c:v>0.73</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.64</c:v>
+                  <c:v>0.69</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.56999999999999995</c:v>
+                  <c:v>0.57999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.55000000000000004</c:v>
+                  <c:v>0.57999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.53</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.6</c:v>
+                  <c:v>0.61</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.61</c:v>
+                  <c:v>0.62</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.56000000000000005</c:v>
+                  <c:v>0.57999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.63</c:v>
+                  <c:v>0.67</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.65</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.67</c:v>
+                  <c:v>0.69</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8322,6 +9043,73 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-75E4-4B5E-8FE9-1FEBA6EDAACA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>LSTM</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Accuracies + Sens 2 Classes'!$R$74:$AB$74</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-061E-417D-AA9D-7D664AA3AACC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8629,7 +9417,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8731,10 +9518,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.72</c:v>
+                  <c:v>0.71</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.76</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.74</c:v>
@@ -8761,7 +9548,7 @@
                   <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.84</c:v>
+                  <c:v>0.83</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8798,37 +9585,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.71</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.75</c:v>
+                  <c:v>0.74</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.75</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.78</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.81</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.81</c:v>
+                  <c:v>0.79</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.84</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.84</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.85</c:v>
+                  <c:v>0.83</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.87</c:v>
+                  <c:v>0.86</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8865,28 +9652,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.69</c:v>
+                  <c:v>0.67</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.72</c:v>
+                  <c:v>0.71</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.74</c:v>
+                  <c:v>0.73</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.76</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.79</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.81</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.81</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.82</c:v>
@@ -8895,7 +9682,7 @@
                   <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.87</c:v>
+                  <c:v>0.81</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8932,34 +9719,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.71</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.78</c:v>
+                  <c:v>0.77</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.8</c:v>
+                  <c:v>0.79</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.8</c:v>
+                  <c:v>0.81</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.81</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.83</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.84</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.85</c:v>
+                  <c:v>0.86</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.89</c:v>
@@ -9038,6 +9825,73 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-9ADB-4040-B7EF-283D8627099F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>LSTM</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Accuracies + Sens 2 Classes'!$R$75:$AB$75</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-45A9-42C9-AB58-7C6F3F6A58C0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9234,7 +10088,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15978,15 +16831,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16007,16 +16860,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16040,15 +16893,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16072,15 +16925,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16103,16 +16956,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16136,15 +16989,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16173,15 +17026,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16204,16 +17057,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16236,16 +17089,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16268,16 +17121,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16300,16 +17153,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16333,15 +17186,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16366,47 +17219,47 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Accuracy_wDistinction_PartialAsgmts" connectionId="41" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Fail_Sensitivity_wDistinction_Full" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Fail_Sensitivity_wDistinction_PartialClicks" connectionId="48" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Accuracy_wDistinction_PartialClicks" connectionId="42" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Accuracy_wDistinction_Full" connectionId="40" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Accuracy_wDistinction_Full" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Accuracy_wDistinction_PartialAsgmts" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Fail_Sensitivity_wDistinction_PartialAsgmts" connectionId="47" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Fail_Sensitivity_wDistinction_PartialClicks" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Fail_Sensitivity_wDistinction_PartialAsgmts" connectionId="35" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Accuracy_wDistinction_PartialAsgmts" connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Accuracy_wDistinction_PartialClicks" connectionId="42" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Accuracy_wDistinction_PartialClicks" connectionId="30" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Fail_Sensitivity_wDistinction_PartialAsgmts" connectionId="47" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Accuracy_wDistinction_Full" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Fail_Sensitivity_wDistinction_PartialAsgmts" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Fail_Sensitivity_wDistinction_PartialClicks" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Fail_Sensitivity_wDistinction_PartialClicks" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Fail_Sensitivity_wDistinction_Full" connectionId="46" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Accuracy_wDistinction_Full" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Accuracy_wDistinction_PartialClicks" connectionId="30" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16414,7 +17267,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Fail_Sensitivity_wDistinction_Full" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Accuracy_wDistinction_PartialAsgmts" connectionId="41" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16422,11 +17275,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Accuracy_wDistinction_PartialClicks" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Accuracy_wDistinction_Full" connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Accuracy_wDistinction_PartialAsgmts" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Accuracy_wDistinction_PartialClicks" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16434,7 +17287,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Fail_Sensitivity_PartialClicks" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Fail_Sensitivity_PartialAsgmts" connectionId="32" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16442,19 +17295,19 @@
 </file>
 
 <file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Accuracy_PartialClicks" connectionId="39" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Accuracy_PartialAsgmts" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Accuracy_Full" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Fail_Sensitivity_Full" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Fail_Sensitivity_PartialAsgmts" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Fail_Sensitivity_PartialAsgmts" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Accuracy_wDistinction_Full" connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Fail_Sensitivity_wDistinction_PartialAsgmts" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16462,7 +17315,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Fail_Sensitivity_PartialAsgmts" connectionId="44" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Fail_Sensitivity_Full" connectionId="43" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16470,55 +17323,55 @@
 </file>
 
 <file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Accuracy_PartialAsgmts" connectionId="38" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Fail_Sensitivity_PartialAsgmts" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Accuracy_PartialAsgmts" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable36.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Fail_Sensitivity_Full" connectionId="31" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable37.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Accuracy_PartialClicks" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable38.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Accuracy_PartialClicks" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable39.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Accuracy_PartialAsgmts" connectionId="26" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Accuracy_wDistinction_PartialAsgmts" connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable40.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Accuracy_PartialClicks" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable41.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Accuracy_Full" connectionId="37" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Fail_Sensitivity_Full" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable42.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Fail_Sensitivity_PartialAsgmts" connectionId="44" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable36.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Accuracy_PartialAsgmts" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable43.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Fail_Sensitivity_PartialClicks" connectionId="45" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable38.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Accuracy_PartialAsgmts" connectionId="26" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable39.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Accuracy_PartialClicks" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Accuracy_wDistinction_PartialClicks" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable40.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Accuracy_PartialAsgmts" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable41.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Accuracy_PartialClicks" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable42.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Fail_Sensitivity_PartialAsgmts" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable43.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Fail_Sensitivity_Full" connectionId="43" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable44.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Fail_Sensitivity_PartialAsgmts" connectionId="32" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Fail_Sensitivity_PartialClicks" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable45.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16526,11 +17379,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable46.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Accuracy_PartialAsgmts" connectionId="38" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Accuracy_PartialClicks" connectionId="39" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable47.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Accuracy_PartialClicks" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Accuracy_Full" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable48.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16538,7 +17391,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Fail_Sensitivity_wDistinction_PartialClicks" connectionId="48" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Fail_Sensitivity_wDistinction_PartialClicks" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16546,7 +17399,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Fail_Sensitivity_wDistinction_Full" connectionId="46" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Accuracy_wDistinction_Full" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16554,7 +17407,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Accuracy_wDistinction_Full" connectionId="40" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Accuracy_wDistinction_PartialClicks" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16820,10 +17673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL69"/>
+  <dimension ref="A1:AL83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="AB93" sqref="AB93"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="U86" sqref="U86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16967,34 +17820,34 @@
         <v>0.61</v>
       </c>
       <c r="C4">
-        <v>0.36</v>
+        <v>0.5</v>
       </c>
       <c r="D4">
-        <v>0.33</v>
+        <v>0.23</v>
       </c>
       <c r="E4">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="F4">
+        <v>0.32</v>
+      </c>
+      <c r="G4">
+        <v>0.3</v>
+      </c>
+      <c r="H4">
+        <v>0.23</v>
+      </c>
+      <c r="I4">
         <v>0.27</v>
       </c>
-      <c r="G4">
-        <v>0.42</v>
-      </c>
-      <c r="H4">
-        <v>0.45</v>
-      </c>
-      <c r="I4">
-        <v>0.32</v>
-      </c>
       <c r="J4">
-        <v>0.33</v>
+        <v>0.27</v>
       </c>
       <c r="K4">
-        <v>0.4</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="L4">
-        <v>0.38</v>
+        <v>0.3</v>
       </c>
       <c r="N4" t="s">
         <v>11</v>
@@ -17074,37 +17927,37 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>0.61</v>
+        <v>0.59</v>
       </c>
       <c r="C5">
-        <v>0.64</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D5">
-        <v>0.57999999999999996</v>
+        <v>0.68</v>
       </c>
       <c r="E5">
-        <v>0.62</v>
+        <v>0.68</v>
       </c>
       <c r="F5">
-        <v>0.62</v>
+        <v>0.49</v>
       </c>
       <c r="G5">
-        <v>0.65</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="H5">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="I5">
+        <v>0.66</v>
+      </c>
+      <c r="J5">
+        <v>0.66</v>
+      </c>
+      <c r="K5">
         <v>0.71</v>
       </c>
-      <c r="J5">
-        <v>0.71</v>
-      </c>
-      <c r="K5">
-        <v>0.72</v>
-      </c>
       <c r="L5">
-        <v>0.84</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="N5" t="s">
         <v>12</v>
@@ -17202,16 +18055,16 @@
         <v>0.73</v>
       </c>
       <c r="H6">
+        <v>0.76</v>
+      </c>
+      <c r="I6">
         <v>0.77</v>
       </c>
-      <c r="I6">
-        <v>0.78</v>
-      </c>
       <c r="J6">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="K6">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="L6">
         <v>0.81</v>
@@ -17411,37 +18264,37 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="C11">
-        <v>0.52</v>
+        <v>0.59</v>
       </c>
       <c r="D11">
-        <v>0.56999999999999995</v>
+        <v>0.42</v>
       </c>
       <c r="E11">
-        <v>0.88</v>
+        <v>0.24</v>
       </c>
       <c r="F11">
-        <v>0.99</v>
+        <v>0.37</v>
       </c>
       <c r="G11">
-        <v>0.96</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="H11">
-        <v>0.95</v>
+        <v>0.36</v>
       </c>
       <c r="I11">
-        <v>0.99</v>
+        <v>0.4</v>
       </c>
       <c r="J11">
-        <v>0.99</v>
+        <v>0.44</v>
       </c>
       <c r="K11">
-        <v>0.99</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="L11">
-        <v>0.99</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="N11" t="s">
         <v>11</v>
@@ -17521,37 +18374,37 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="C12">
-        <v>0.51</v>
+        <v>0.76</v>
       </c>
       <c r="D12">
-        <v>0.15</v>
+        <v>0.44</v>
       </c>
       <c r="E12">
-        <v>0.12</v>
+        <v>0.37</v>
       </c>
       <c r="F12">
-        <v>0.11</v>
+        <v>0.88</v>
       </c>
       <c r="G12">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="H12">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="I12">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="J12">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="K12">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="L12">
-        <v>0.85</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="N12" t="s">
         <v>12</v>
@@ -17631,37 +18484,37 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
       <c r="C13">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="D13">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="E13">
+        <v>0.44</v>
+      </c>
+      <c r="F13">
         <v>0.5</v>
       </c>
-      <c r="F13">
-        <v>0.53</v>
-      </c>
       <c r="G13">
-        <v>0.63</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="H13">
-        <v>0.71</v>
+        <v>0.65</v>
       </c>
       <c r="I13">
-        <v>0.73</v>
+        <v>0.68</v>
       </c>
       <c r="J13">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
       <c r="K13">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="L13">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="N13" t="s">
         <v>13</v>
@@ -17861,34 +18714,34 @@
         <v>0.63</v>
       </c>
       <c r="C20">
-        <v>0.53</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D20">
-        <v>0.47</v>
+        <v>0.59</v>
       </c>
       <c r="E20">
-        <v>0.28000000000000003</v>
+        <v>0.68</v>
       </c>
       <c r="F20">
-        <v>0.27</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="G20">
-        <v>0.31</v>
+        <v>0.72</v>
       </c>
       <c r="H20">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="I20">
-        <v>0.38</v>
+        <v>0.72</v>
       </c>
       <c r="J20">
-        <v>0.6</v>
+        <v>0.74</v>
       </c>
       <c r="K20">
-        <v>0.45</v>
+        <v>0.75</v>
       </c>
       <c r="L20">
-        <v>0.42</v>
+        <v>0.76</v>
       </c>
       <c r="N20" t="s">
         <v>11</v>
@@ -17968,34 +18821,34 @@
         <v>12</v>
       </c>
       <c r="B21">
-        <v>0.61</v>
+        <v>0.59</v>
       </c>
       <c r="C21">
         <v>0.66</v>
       </c>
       <c r="D21">
+        <v>0.65</v>
+      </c>
+      <c r="E21">
+        <v>0.64</v>
+      </c>
+      <c r="F21">
         <v>0.66</v>
       </c>
-      <c r="E21">
-        <v>0.66</v>
-      </c>
-      <c r="F21">
-        <v>0.68</v>
-      </c>
       <c r="G21">
+        <v>0.69</v>
+      </c>
+      <c r="H21">
+        <v>0.7</v>
+      </c>
+      <c r="I21">
+        <v>0.72</v>
+      </c>
+      <c r="J21">
         <v>0.71</v>
       </c>
-      <c r="H21">
-        <v>0.71</v>
-      </c>
-      <c r="I21">
+      <c r="K21">
         <v>0.73</v>
-      </c>
-      <c r="J21">
-        <v>0.73</v>
-      </c>
-      <c r="K21">
-        <v>0.74</v>
       </c>
       <c r="L21">
         <v>0.75</v>
@@ -18090,25 +18943,25 @@
         <v>0.66</v>
       </c>
       <c r="F22">
-        <v>0.68</v>
+        <v>0.69</v>
       </c>
       <c r="G22">
         <v>0.72</v>
       </c>
       <c r="H22">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="I22">
         <v>0.76</v>
       </c>
       <c r="J22">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="K22">
         <v>0.79</v>
       </c>
       <c r="L22">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="N22" t="s">
         <v>13</v>
@@ -18305,37 +19158,37 @@
         <v>11</v>
       </c>
       <c r="B27">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="C27">
-        <v>0.52</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D27">
-        <v>0.83</v>
+        <v>0.43</v>
       </c>
       <c r="E27">
-        <v>0.98</v>
+        <v>0.24</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.53</v>
       </c>
       <c r="G27">
-        <v>0.99</v>
+        <v>0.4</v>
       </c>
       <c r="H27">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="I27">
-        <v>0.97</v>
+        <v>0.36</v>
       </c>
       <c r="J27">
-        <v>0.92</v>
+        <v>0.42</v>
       </c>
       <c r="K27">
-        <v>0.97</v>
+        <v>0.49</v>
       </c>
       <c r="L27">
-        <v>0.98</v>
+        <v>0.5</v>
       </c>
       <c r="N27" t="s">
         <v>11</v>
@@ -18418,34 +19271,34 @@
         <v>0.27</v>
       </c>
       <c r="C28">
-        <v>0.38</v>
+        <v>0.48</v>
       </c>
       <c r="D28">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
       <c r="E28">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="F28">
+        <v>0.33</v>
+      </c>
+      <c r="G28">
         <v>0.42</v>
       </c>
-      <c r="G28">
-        <v>0.5</v>
-      </c>
       <c r="H28">
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
       <c r="I28">
-        <v>0.63</v>
+        <v>0.51</v>
       </c>
       <c r="J28">
-        <v>0.59</v>
+        <v>0.51</v>
       </c>
       <c r="K28">
-        <v>0.65</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="L28">
-        <v>0.56999999999999995</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="N28" t="s">
         <v>12</v>
@@ -18525,37 +19378,37 @@
         <v>13</v>
       </c>
       <c r="B29">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="C29">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="D29">
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
       <c r="E29">
-        <v>0.48</v>
+        <v>0.43</v>
       </c>
       <c r="F29">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="G29">
-        <v>0.59</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H29">
+        <v>0.62</v>
+      </c>
+      <c r="I29">
         <v>0.67</v>
       </c>
-      <c r="I29">
-        <v>0.68</v>
-      </c>
       <c r="J29">
+        <v>0.76</v>
+      </c>
+      <c r="K29">
+        <v>0.76</v>
+      </c>
+      <c r="L29">
         <v>0.78</v>
-      </c>
-      <c r="K29">
-        <v>0.79</v>
-      </c>
-      <c r="L29">
-        <v>0.82</v>
       </c>
       <c r="N29" t="s">
         <v>13</v>
@@ -18752,37 +19605,37 @@
         <v>11</v>
       </c>
       <c r="B36">
-        <v>0.56000000000000005</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C36">
-        <v>0.39</v>
+        <v>0.25</v>
       </c>
       <c r="D36">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="E36">
-        <v>0.42</v>
+        <v>0.25</v>
       </c>
       <c r="F36">
-        <v>0.39</v>
+        <v>0.26</v>
       </c>
       <c r="G36">
-        <v>0.46</v>
+        <v>0.27</v>
       </c>
       <c r="H36">
-        <v>0.51</v>
+        <v>0.3</v>
       </c>
       <c r="I36">
-        <v>0.46</v>
+        <v>0.3</v>
       </c>
       <c r="J36">
-        <v>0.5</v>
+        <v>0.34</v>
       </c>
       <c r="K36">
-        <v>0.52</v>
+        <v>0.37</v>
       </c>
       <c r="L36">
-        <v>0.54</v>
+        <v>0.38</v>
       </c>
       <c r="N36" t="s">
         <v>11</v>
@@ -18862,19 +19715,19 @@
         <v>12</v>
       </c>
       <c r="B37">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C37">
         <v>0.6</v>
       </c>
-      <c r="C37">
-        <v>0.62</v>
-      </c>
       <c r="D37">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="E37">
         <v>0.63</v>
       </c>
       <c r="F37">
-        <v>0.56999999999999995</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="G37">
         <v>0.56000000000000005</v>
@@ -18886,13 +19739,13 @@
         <v>0.59</v>
       </c>
       <c r="J37">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="K37">
         <v>0.61</v>
       </c>
       <c r="L37">
-        <v>0.64</v>
+        <v>0.72</v>
       </c>
       <c r="N37" t="s">
         <v>12</v>
@@ -18984,22 +19837,22 @@
         <v>0.63</v>
       </c>
       <c r="F38">
+        <v>0.65</v>
+      </c>
+      <c r="G38">
         <v>0.66</v>
       </c>
-      <c r="G38">
-        <v>0.67</v>
-      </c>
       <c r="H38">
-        <v>0.7</v>
+        <v>0.69</v>
       </c>
       <c r="I38">
         <v>0.7</v>
       </c>
       <c r="J38">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="K38">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="L38">
         <v>0.75</v>
@@ -19199,37 +20052,37 @@
         <v>11</v>
       </c>
       <c r="B43">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="C43">
-        <v>0.56000000000000005</v>
+        <v>0.99</v>
       </c>
       <c r="D43">
-        <v>0.79</v>
+        <v>0.99</v>
       </c>
       <c r="E43">
-        <v>0.71</v>
+        <v>0.99</v>
       </c>
       <c r="F43">
-        <v>0.87</v>
+        <v>0.99</v>
       </c>
       <c r="G43">
-        <v>0.82</v>
+        <v>0.99</v>
       </c>
       <c r="H43">
-        <v>0.86</v>
+        <v>0.99</v>
       </c>
       <c r="I43">
-        <v>0.94</v>
+        <v>0.99</v>
       </c>
       <c r="J43">
-        <v>0.94</v>
+        <v>0.99</v>
       </c>
       <c r="K43">
-        <v>0.94</v>
+        <v>0.98</v>
       </c>
       <c r="L43">
-        <v>0.94</v>
+        <v>0.98</v>
       </c>
       <c r="N43" t="s">
         <v>11</v>
@@ -19309,37 +20162,37 @@
         <v>12</v>
       </c>
       <c r="B44">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="C44">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="D44">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="E44">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
       <c r="F44">
-        <v>0.53</v>
+        <v>0.46</v>
       </c>
       <c r="G44">
-        <v>0.56000000000000005</v>
+        <v>0.49</v>
       </c>
       <c r="H44">
+        <v>0.46</v>
+      </c>
+      <c r="I44">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I44">
-        <v>0.65</v>
-      </c>
       <c r="J44">
-        <v>0.63</v>
+        <v>0.54</v>
       </c>
       <c r="K44">
-        <v>0.67</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="L44">
-        <v>0.75</v>
+        <v>0.82</v>
       </c>
       <c r="N44" t="s">
         <v>12</v>
@@ -19419,37 +20272,37 @@
         <v>13</v>
       </c>
       <c r="B45">
-        <v>0.28000000000000003</v>
+        <v>0.27</v>
       </c>
       <c r="C45">
-        <v>0.59</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D45">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E45">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F45">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G45">
         <v>0.61</v>
       </c>
-      <c r="E45">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="F45">
-        <v>0.61</v>
-      </c>
-      <c r="G45">
-        <v>0.64</v>
-      </c>
       <c r="H45">
-        <v>0.69</v>
+        <v>0.65</v>
       </c>
       <c r="I45">
-        <v>0.71</v>
+        <v>0.66</v>
       </c>
       <c r="J45">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="K45">
-        <v>0.75</v>
+        <v>0.72</v>
       </c>
       <c r="L45">
-        <v>0.75</v>
+        <v>0.72</v>
       </c>
       <c r="N45" t="s">
         <v>13</v>
@@ -19646,37 +20499,37 @@
         <v>11</v>
       </c>
       <c r="B52">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="C52">
-        <v>0.52</v>
+        <v>0.49</v>
       </c>
       <c r="D52">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="E52">
+        <v>0.49</v>
+      </c>
+      <c r="F52">
         <v>0.47</v>
       </c>
-      <c r="F52">
-        <v>0.45</v>
-      </c>
       <c r="G52">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="H52">
-        <v>0.53</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I52">
-        <v>0.48</v>
+        <v>0.51</v>
       </c>
       <c r="J52">
-        <v>0.55000000000000004</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="K52">
-        <v>0.56999999999999995</v>
+        <v>0.59</v>
       </c>
       <c r="L52">
-        <v>0.57999999999999996</v>
+        <v>0.59</v>
       </c>
       <c r="N52" t="s">
         <v>11</v>
@@ -19756,19 +20609,19 @@
         <v>12</v>
       </c>
       <c r="B53">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="C53">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="D53">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="E53">
         <v>0.69</v>
       </c>
       <c r="F53">
-        <v>0.69</v>
+        <v>0.68</v>
       </c>
       <c r="G53">
         <v>0.71</v>
@@ -19777,16 +20630,16 @@
         <v>0.72</v>
       </c>
       <c r="I53">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
       <c r="J53">
+        <v>0.74</v>
+      </c>
+      <c r="K53">
         <v>0.75</v>
       </c>
-      <c r="K53">
-        <v>0.76</v>
-      </c>
       <c r="L53">
-        <v>0.82</v>
+        <v>0.81</v>
       </c>
       <c r="N53" t="s">
         <v>12</v>
@@ -19866,7 +20719,7 @@
         <v>13</v>
       </c>
       <c r="B54">
-        <v>0.56999999999999995</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="C54">
         <v>0.61</v>
@@ -19875,7 +20728,7 @@
         <v>0.65</v>
       </c>
       <c r="E54">
-        <v>0.71</v>
+        <v>0.69</v>
       </c>
       <c r="F54">
         <v>0.73</v>
@@ -19896,7 +20749,7 @@
         <v>0.79</v>
       </c>
       <c r="L54">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="N54" t="s">
         <v>13</v>
@@ -20099,28 +20952,28 @@
         <v>0.51</v>
       </c>
       <c r="D59">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="E59">
+        <v>0.82</v>
+      </c>
+      <c r="F59">
         <v>0.86</v>
       </c>
-      <c r="F59">
+      <c r="G59">
+        <v>0.78</v>
+      </c>
+      <c r="H59">
+        <v>0.86</v>
+      </c>
+      <c r="I59">
+        <v>0.91</v>
+      </c>
+      <c r="J59">
         <v>0.88</v>
       </c>
-      <c r="G59">
-        <v>0.84</v>
-      </c>
-      <c r="H59">
-        <v>0.88</v>
-      </c>
-      <c r="I59">
-        <v>0.92</v>
-      </c>
-      <c r="J59">
-        <v>0.9</v>
-      </c>
       <c r="K59">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="L59">
         <v>0.92</v>
@@ -20203,37 +21056,37 @@
         <v>12</v>
       </c>
       <c r="B60">
-        <v>0.33</v>
+        <v>0.24</v>
       </c>
       <c r="C60">
-        <v>0.52</v>
+        <v>0.47</v>
       </c>
       <c r="D60">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="E60">
-        <v>0.52</v>
+        <v>0.49</v>
       </c>
       <c r="F60">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="G60">
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
       <c r="H60">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="I60">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
       <c r="J60">
-        <v>0.67</v>
+        <v>0.64</v>
       </c>
       <c r="K60">
-        <v>0.73</v>
+        <v>0.7</v>
       </c>
       <c r="L60">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="N60" t="s">
         <v>12</v>
@@ -20313,34 +21166,34 @@
         <v>13</v>
       </c>
       <c r="B61">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="C61">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="D61">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="E61">
-        <v>0.61</v>
+        <v>0.59</v>
       </c>
       <c r="F61">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="G61">
-        <v>0.69</v>
+        <v>0.68</v>
       </c>
       <c r="H61">
         <v>0.73</v>
       </c>
       <c r="I61">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="J61">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="K61">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="L61">
         <v>0.86</v>
@@ -20418,12 +21271,12 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>0</v>
       </c>
@@ -20458,7 +21311,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>11</v>
       </c>
@@ -20507,7 +21360,7 @@
         <v>0.62994167206740115</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>12</v>
       </c>
@@ -20556,7 +21409,7 @@
         <v>0.58823529411764708</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>13</v>
       </c>
@@ -20603,6 +21456,662 @@
       <c r="L69" s="1">
         <f t="shared" si="2"/>
         <v>0.56887417218543046</v>
+      </c>
+    </row>
+    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>26</v>
+      </c>
+      <c r="R72" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1</v>
+      </c>
+      <c r="D73" t="s">
+        <v>2</v>
+      </c>
+      <c r="E73" t="s">
+        <v>3</v>
+      </c>
+      <c r="F73" t="s">
+        <v>4</v>
+      </c>
+      <c r="G73" t="s">
+        <v>5</v>
+      </c>
+      <c r="H73" t="s">
+        <v>6</v>
+      </c>
+      <c r="I73" t="s">
+        <v>7</v>
+      </c>
+      <c r="J73" t="s">
+        <v>8</v>
+      </c>
+      <c r="K73" t="s">
+        <v>9</v>
+      </c>
+      <c r="L73" t="s">
+        <v>10</v>
+      </c>
+      <c r="M73" t="s">
+        <v>30</v>
+      </c>
+      <c r="N73" t="s">
+        <v>31</v>
+      </c>
+      <c r="O73" t="s">
+        <v>32</v>
+      </c>
+      <c r="S73" t="s">
+        <v>0</v>
+      </c>
+      <c r="T73" t="s">
+        <v>1</v>
+      </c>
+      <c r="U73" t="s">
+        <v>2</v>
+      </c>
+      <c r="V73" t="s">
+        <v>3</v>
+      </c>
+      <c r="W73" t="s">
+        <v>4</v>
+      </c>
+      <c r="X73" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA73" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB73" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC73" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD73" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE73" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF73" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="C74" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="D74" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="E74" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="F74" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="H74" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="I74" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="J74" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="K74" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="L74" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="M74" t="s">
+        <v>33</v>
+      </c>
+      <c r="N74" t="s">
+        <v>35</v>
+      </c>
+      <c r="O74">
+        <v>32</v>
+      </c>
+      <c r="R74" t="s">
+        <v>11</v>
+      </c>
+      <c r="S74" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="T74" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="U74" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="V74" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="W74" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="X74" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="Y74" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="Z74" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="AA74" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="AB74" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="AC74" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="AD74" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE74">
+        <v>15</v>
+      </c>
+      <c r="AF74">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>12</v>
+      </c>
+      <c r="B75" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="E75" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="F75" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="H75" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="I75" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="J75" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="K75" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="L75" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="M75" t="s">
+        <v>33</v>
+      </c>
+      <c r="N75" t="s">
+        <v>35</v>
+      </c>
+      <c r="O75">
+        <v>32</v>
+      </c>
+      <c r="R75" t="s">
+        <v>12</v>
+      </c>
+      <c r="S75" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="T75" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="U75" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="V75" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="W75" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="X75" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="Y75" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="Z75" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="AA75" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="AB75" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="AC75" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="AD75" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE75" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>13</v>
+      </c>
+      <c r="B76" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="C76" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E76" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="F76" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="H76" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="I76" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="J76" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="K76" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="L76" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="M76" t="s">
+        <v>33</v>
+      </c>
+      <c r="N76" t="s">
+        <v>35</v>
+      </c>
+      <c r="O76">
+        <v>32</v>
+      </c>
+      <c r="R76" t="s">
+        <v>13</v>
+      </c>
+      <c r="S76" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="T76" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="U76" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="V76" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="W76" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="X76" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="Y76" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="Z76" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="AA76" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="AB76" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="AC76" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="AD76" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE76" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>27</v>
+      </c>
+      <c r="R79" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="80" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1</v>
+      </c>
+      <c r="D80" t="s">
+        <v>2</v>
+      </c>
+      <c r="E80" t="s">
+        <v>3</v>
+      </c>
+      <c r="F80" t="s">
+        <v>4</v>
+      </c>
+      <c r="G80" t="s">
+        <v>5</v>
+      </c>
+      <c r="H80" t="s">
+        <v>6</v>
+      </c>
+      <c r="I80" t="s">
+        <v>7</v>
+      </c>
+      <c r="J80" t="s">
+        <v>8</v>
+      </c>
+      <c r="K80" t="s">
+        <v>9</v>
+      </c>
+      <c r="L80" t="s">
+        <v>10</v>
+      </c>
+      <c r="S80" t="s">
+        <v>0</v>
+      </c>
+      <c r="T80" t="s">
+        <v>1</v>
+      </c>
+      <c r="U80" t="s">
+        <v>2</v>
+      </c>
+      <c r="V80" t="s">
+        <v>3</v>
+      </c>
+      <c r="W80" t="s">
+        <v>4</v>
+      </c>
+      <c r="X80" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA80" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB80" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC80" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="C81" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="D81" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="E81" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="F81" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="G81" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="H81" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="I81" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="J81" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="K81" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="L81" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="M81" t="s">
+        <v>33</v>
+      </c>
+      <c r="N81" t="s">
+        <v>35</v>
+      </c>
+      <c r="O81">
+        <v>32</v>
+      </c>
+      <c r="R81" t="s">
+        <v>11</v>
+      </c>
+      <c r="S81" s="1"/>
+      <c r="T81" s="1"/>
+      <c r="U81" s="1"/>
+      <c r="V81" s="1"/>
+      <c r="W81" s="1"/>
+      <c r="X81" s="1"/>
+      <c r="Y81" s="1"/>
+      <c r="Z81" s="1"/>
+      <c r="AA81" s="1"/>
+      <c r="AB81" s="1"/>
+      <c r="AC81" s="1"/>
+      <c r="AD81" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE81" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF81">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="82" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>12</v>
+      </c>
+      <c r="B82" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="C82" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="D82" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="E82" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="F82" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="G82" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="H82" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="I82" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="J82" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="K82" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="L82" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="M82" t="s">
+        <v>33</v>
+      </c>
+      <c r="N82" t="s">
+        <v>35</v>
+      </c>
+      <c r="O82">
+        <v>32</v>
+      </c>
+      <c r="R82" t="s">
+        <v>12</v>
+      </c>
+      <c r="S82" s="1"/>
+      <c r="T82" s="1"/>
+      <c r="U82" s="1"/>
+      <c r="V82" s="1"/>
+      <c r="W82" s="1"/>
+      <c r="X82" s="1"/>
+      <c r="Y82" s="1"/>
+      <c r="Z82" s="1"/>
+      <c r="AA82" s="1"/>
+      <c r="AB82" s="1"/>
+      <c r="AC82" s="1"/>
+      <c r="AD82" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE82" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF82">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="83" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B83" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="C83" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="D83" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="E83" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="F83" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="G83" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="H83" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="I83" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="J83" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="K83" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="L83" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="M83" t="s">
+        <v>33</v>
+      </c>
+      <c r="N83" t="s">
+        <v>35</v>
+      </c>
+      <c r="O83">
+        <v>32</v>
+      </c>
+      <c r="R83" t="s">
+        <v>13</v>
+      </c>
+      <c r="S83" s="1"/>
+      <c r="T83" s="1"/>
+      <c r="U83" s="1"/>
+      <c r="V83" s="1"/>
+      <c r="W83" s="1"/>
+      <c r="X83" s="1"/>
+      <c r="Y83" s="1"/>
+      <c r="Z83" s="1"/>
+      <c r="AA83" s="1"/>
+      <c r="AB83" s="1"/>
+      <c r="AC83" s="1"/>
+      <c r="AD83" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE83" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF83">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -20613,10 +22122,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL69"/>
+  <dimension ref="A1:AL87"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="N129" sqref="N129"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="Y74" sqref="Y74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20627,9 +22136,12 @@
     <col min="12" max="12" width="8.5703125" customWidth="1"/>
     <col min="14" max="14" width="4.85546875" customWidth="1"/>
     <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="24" width="7.5703125" customWidth="1"/>
+    <col min="16" max="17" width="7.5703125" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" customWidth="1"/>
+    <col min="19" max="24" width="7.5703125" customWidth="1"/>
     <col min="25" max="25" width="8.5703125" customWidth="1"/>
-    <col min="27" max="27" width="4.85546875" customWidth="1"/>
+    <col min="26" max="26" width="10.7109375" customWidth="1"/>
+    <col min="27" max="27" width="8.85546875" customWidth="1"/>
     <col min="28" max="28" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="29" max="37" width="7.5703125" customWidth="1"/>
     <col min="38" max="38" width="8.5703125" customWidth="1"/>
@@ -20760,34 +22272,34 @@
         <v>0.74</v>
       </c>
       <c r="C4">
-        <v>0.57999999999999996</v>
+        <v>0.47</v>
       </c>
       <c r="D4">
-        <v>0.59</v>
+        <v>0.67</v>
       </c>
       <c r="E4">
-        <v>0.52</v>
+        <v>0.8</v>
       </c>
       <c r="F4">
-        <v>0.28000000000000003</v>
+        <v>0.71</v>
       </c>
       <c r="G4">
-        <v>0.43</v>
+        <v>0.82</v>
       </c>
       <c r="H4">
-        <v>0.56999999999999995</v>
+        <v>0.84</v>
       </c>
       <c r="I4">
-        <v>0.47</v>
+        <v>0.86</v>
       </c>
       <c r="J4">
-        <v>0.64</v>
+        <v>0.86</v>
       </c>
       <c r="K4">
-        <v>0.47</v>
+        <v>0.9</v>
       </c>
       <c r="L4">
-        <v>0.45</v>
+        <v>0.9</v>
       </c>
       <c r="N4" t="s">
         <v>11</v>
@@ -20867,10 +22379,10 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="C5">
-        <v>0.76</v>
+        <v>0.64</v>
       </c>
       <c r="D5">
         <v>0.74</v>
@@ -20897,7 +22409,7 @@
         <v>0.72</v>
       </c>
       <c r="L5">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="N5" t="s">
         <v>12</v>
@@ -20977,7 +22489,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="C6">
         <v>0.78</v>
@@ -20986,7 +22498,7 @@
         <v>0.81</v>
       </c>
       <c r="E6">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="F6">
         <v>0.85</v>
@@ -20998,16 +22510,16 @@
         <v>0.88</v>
       </c>
       <c r="I6">
+        <v>0.88</v>
+      </c>
+      <c r="J6">
         <v>0.89</v>
-      </c>
-      <c r="J6">
-        <v>0.88</v>
       </c>
       <c r="K6">
         <v>0.9</v>
       </c>
       <c r="L6">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="N6" t="s">
         <v>13</v>
@@ -21204,37 +22716,37 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="C11">
-        <v>0.52</v>
+        <v>0.82</v>
       </c>
       <c r="D11">
-        <v>0.55000000000000004</v>
+        <v>0.44</v>
       </c>
       <c r="E11">
-        <v>0.84</v>
+        <v>0.24</v>
       </c>
       <c r="F11">
-        <v>0.99</v>
+        <v>0.45</v>
       </c>
       <c r="G11">
-        <v>0.98</v>
+        <v>0.3</v>
       </c>
       <c r="H11">
-        <v>0.94</v>
+        <v>0.42</v>
       </c>
       <c r="I11">
-        <v>0.96</v>
+        <v>0.48</v>
       </c>
       <c r="J11">
-        <v>0.88</v>
+        <v>0.46</v>
       </c>
       <c r="K11">
-        <v>0.98</v>
+        <v>0.6</v>
       </c>
       <c r="L11">
-        <v>0.98</v>
+        <v>0.6</v>
       </c>
       <c r="N11" t="s">
         <v>11</v>
@@ -21314,16 +22826,16 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.18</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C12">
-        <v>0.45</v>
+        <v>0.79</v>
       </c>
       <c r="D12">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="E12">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="F12">
         <v>0.1</v>
@@ -21344,7 +22856,7 @@
         <v>0.1</v>
       </c>
       <c r="L12">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="N12" t="s">
         <v>12</v>
@@ -21424,37 +22936,37 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="C13">
-        <v>0.28000000000000003</v>
+        <v>0.26</v>
       </c>
       <c r="D13">
+        <v>0.43</v>
+      </c>
+      <c r="E13">
+        <v>0.42</v>
+      </c>
+      <c r="F13">
         <v>0.46</v>
       </c>
-      <c r="E13">
-        <v>0.48</v>
-      </c>
-      <c r="F13">
+      <c r="G13">
         <v>0.51</v>
       </c>
-      <c r="G13">
-        <v>0.56999999999999995</v>
-      </c>
       <c r="H13">
-        <v>0.66</v>
+        <v>0.6</v>
       </c>
       <c r="I13">
-        <v>0.68</v>
+        <v>0.63</v>
       </c>
       <c r="J13">
-        <v>0.75</v>
+        <v>0.72</v>
       </c>
       <c r="K13">
-        <v>0.77</v>
+        <v>0.72</v>
       </c>
       <c r="L13">
-        <v>0.79</v>
+        <v>0.74</v>
       </c>
       <c r="N13" t="s">
         <v>13</v>
@@ -21654,34 +23166,34 @@
         <v>0.74</v>
       </c>
       <c r="C20">
-        <v>0.61</v>
+        <v>0.76</v>
       </c>
       <c r="D20">
-        <v>0.56999999999999995</v>
+        <v>0.76</v>
       </c>
       <c r="E20">
-        <v>0.39</v>
+        <v>0.79</v>
       </c>
       <c r="F20">
-        <v>0.28999999999999998</v>
+        <v>0.78</v>
       </c>
       <c r="G20">
-        <v>0.39</v>
+        <v>0.81</v>
       </c>
       <c r="H20">
-        <v>0.61</v>
+        <v>0.81</v>
       </c>
       <c r="I20">
-        <v>0.46</v>
+        <v>0.81</v>
       </c>
       <c r="J20">
-        <v>0.69</v>
+        <v>0.82</v>
       </c>
       <c r="K20">
-        <v>0.56000000000000005</v>
+        <v>0.83</v>
       </c>
       <c r="L20">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="N20" t="s">
         <v>11</v>
@@ -21761,37 +23273,37 @@
         <v>12</v>
       </c>
       <c r="B21">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="C21">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="D21">
         <v>0.75</v>
       </c>
       <c r="E21">
+        <v>0.73</v>
+      </c>
+      <c r="F21">
         <v>0.75</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.78</v>
       </c>
-      <c r="G21">
-        <v>0.81</v>
-      </c>
       <c r="H21">
-        <v>0.81</v>
+        <v>0.79</v>
       </c>
       <c r="I21">
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
       <c r="J21">
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
       <c r="K21">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="L21">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="N21" t="s">
         <v>12</v>
@@ -21886,22 +23398,22 @@
         <v>0.85</v>
       </c>
       <c r="G22">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="H22">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="I22">
         <v>0.9</v>
       </c>
       <c r="J22">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="K22">
         <v>0.91</v>
       </c>
       <c r="L22">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="N22" t="s">
         <v>13</v>
@@ -22098,37 +23610,37 @@
         <v>11</v>
       </c>
       <c r="B27">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C27">
-        <v>0.5</v>
+        <v>0.24</v>
       </c>
       <c r="D27">
-        <v>0.76</v>
+        <v>0.27</v>
       </c>
       <c r="E27">
-        <v>0.9</v>
+        <v>0.18</v>
       </c>
       <c r="F27">
-        <v>0.99</v>
+        <v>0.35</v>
       </c>
       <c r="G27">
-        <v>0.99</v>
+        <v>0.27</v>
       </c>
       <c r="H27">
-        <v>0.9</v>
+        <v>0.27</v>
       </c>
       <c r="I27">
-        <v>0.97</v>
+        <v>0.27</v>
       </c>
       <c r="J27">
-        <v>0.91</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K27">
-        <v>0.97</v>
+        <v>0.32</v>
       </c>
       <c r="L27">
-        <v>0.97</v>
+        <v>0.34</v>
       </c>
       <c r="N27" t="s">
         <v>11</v>
@@ -22211,34 +23723,34 @@
         <v>0.18</v>
       </c>
       <c r="C28">
-        <v>0.35</v>
+        <v>0.43</v>
       </c>
       <c r="D28">
         <v>0.3</v>
       </c>
       <c r="E28">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="F28">
-        <v>0.37</v>
+        <v>0.3</v>
       </c>
       <c r="G28">
+        <v>0.4</v>
+      </c>
+      <c r="H28">
+        <v>0.42</v>
+      </c>
+      <c r="I28">
         <v>0.49</v>
       </c>
-      <c r="H28">
-        <v>0.45</v>
-      </c>
-      <c r="I28">
-        <v>0.62</v>
-      </c>
       <c r="J28">
-        <v>0.56999999999999995</v>
+        <v>0.48</v>
       </c>
       <c r="K28">
-        <v>0.64</v>
+        <v>0.52</v>
       </c>
       <c r="L28">
-        <v>0.57999999999999996</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="N28" t="s">
         <v>12</v>
@@ -22318,37 +23830,37 @@
         <v>13</v>
       </c>
       <c r="B29">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="C29">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="D29">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="E29">
-        <v>0.48</v>
+        <v>0.42</v>
       </c>
       <c r="F29">
-        <v>0.53</v>
+        <v>0.49</v>
       </c>
       <c r="G29">
-        <v>0.59</v>
+        <v>0.54</v>
       </c>
       <c r="H29">
+        <v>0.61</v>
+      </c>
+      <c r="I29">
         <v>0.67</v>
       </c>
-      <c r="I29">
-        <v>0.69</v>
-      </c>
       <c r="J29">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="K29">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="L29">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="N29" t="s">
         <v>13</v>
@@ -22548,34 +24060,34 @@
         <v>0.73</v>
       </c>
       <c r="C36">
-        <v>0.57999999999999996</v>
+        <v>0.25</v>
       </c>
       <c r="D36">
-        <v>0.54</v>
+        <v>0.25</v>
       </c>
       <c r="E36">
-        <v>0.59</v>
+        <v>0.25</v>
       </c>
       <c r="F36">
-        <v>0.5</v>
+        <v>0.26</v>
       </c>
       <c r="G36">
-        <v>0.57999999999999996</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="H36">
-        <v>0.6</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="I36">
-        <v>0.51</v>
+        <v>0.31</v>
       </c>
       <c r="J36">
-        <v>0.56000000000000005</v>
+        <v>0.35</v>
       </c>
       <c r="K36">
-        <v>0.57999999999999996</v>
+        <v>0.39</v>
       </c>
       <c r="L36">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="N36" t="s">
         <v>11</v>
@@ -22655,28 +24167,28 @@
         <v>12</v>
       </c>
       <c r="B37">
-        <v>0.69</v>
+        <v>0.67</v>
       </c>
       <c r="C37">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="D37">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="E37">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="F37">
+        <v>0.77</v>
+      </c>
+      <c r="G37">
+        <v>0.78</v>
+      </c>
+      <c r="H37">
         <v>0.79</v>
       </c>
-      <c r="G37">
+      <c r="I37">
         <v>0.8</v>
-      </c>
-      <c r="H37">
-        <v>0.81</v>
-      </c>
-      <c r="I37">
-        <v>0.81</v>
       </c>
       <c r="J37">
         <v>0.82</v>
@@ -22685,7 +24197,7 @@
         <v>0.82</v>
       </c>
       <c r="L37">
-        <v>0.87</v>
+        <v>0.81</v>
       </c>
       <c r="N37" t="s">
         <v>12</v>
@@ -22765,34 +24277,34 @@
         <v>13</v>
       </c>
       <c r="B38">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="C38">
         <v>0.73</v>
       </c>
       <c r="D38">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="E38">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="F38">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="G38">
         <v>0.83</v>
       </c>
       <c r="H38">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="I38">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="J38">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="K38">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="L38">
         <v>0.9</v>
@@ -22992,37 +24504,37 @@
         <v>11</v>
       </c>
       <c r="B43">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="C43">
-        <v>0.56000000000000005</v>
+        <v>1</v>
       </c>
       <c r="D43">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="E43">
-        <v>0.69</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="G43">
-        <v>0.81</v>
+        <v>0.99</v>
       </c>
       <c r="H43">
-        <v>0.86</v>
+        <v>0.99</v>
       </c>
       <c r="I43">
-        <v>0.94</v>
+        <v>0.99</v>
       </c>
       <c r="J43">
-        <v>0.94</v>
+        <v>0.99</v>
       </c>
       <c r="K43">
-        <v>0.94</v>
+        <v>0.99</v>
       </c>
       <c r="L43">
-        <v>0.94</v>
+        <v>0.99</v>
       </c>
       <c r="N43" t="s">
         <v>11</v>
@@ -23102,37 +24614,37 @@
         <v>12</v>
       </c>
       <c r="B44">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="C44">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="D44">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="E44">
-        <v>0.42</v>
+        <v>0.39</v>
       </c>
       <c r="F44">
-        <v>0.55000000000000004</v>
+        <v>0.49</v>
       </c>
       <c r="G44">
-        <v>0.57999999999999996</v>
+        <v>0.51</v>
       </c>
       <c r="H44">
+        <v>0.49</v>
+      </c>
+      <c r="I44">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J44">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="K44">
         <v>0.6</v>
       </c>
-      <c r="I44">
-        <v>0.67</v>
-      </c>
-      <c r="J44">
-        <v>0.67</v>
-      </c>
-      <c r="K44">
-        <v>0.7</v>
-      </c>
       <c r="L44">
-        <v>0.77</v>
+        <v>0.87</v>
       </c>
       <c r="N44" t="s">
         <v>12</v>
@@ -23212,37 +24724,37 @@
         <v>13</v>
       </c>
       <c r="B45">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="C45">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D45">
         <v>0.6</v>
       </c>
-      <c r="D45">
+      <c r="E45">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F45">
+        <v>0.6</v>
+      </c>
+      <c r="G45">
         <v>0.63</v>
       </c>
-      <c r="E45">
-        <v>0.62</v>
-      </c>
-      <c r="F45">
-        <v>0.65</v>
-      </c>
-      <c r="G45">
+      <c r="H45">
         <v>0.68</v>
       </c>
-      <c r="H45">
-        <v>0.73</v>
-      </c>
       <c r="I45">
+        <v>0.69</v>
+      </c>
+      <c r="J45">
+        <v>0.74</v>
+      </c>
+      <c r="K45">
         <v>0.75</v>
       </c>
-      <c r="J45">
-        <v>0.77</v>
-      </c>
-      <c r="K45">
-        <v>0.77</v>
-      </c>
       <c r="L45">
-        <v>0.79</v>
+        <v>0.74</v>
       </c>
       <c r="N45" t="s">
         <v>13</v>
@@ -23442,34 +24954,34 @@
         <v>0.73</v>
       </c>
       <c r="C52">
-        <v>0.64</v>
+        <v>0.69</v>
       </c>
       <c r="D52">
-        <v>0.56999999999999995</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="E52">
-        <v>0.55000000000000004</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="F52">
-        <v>0.53</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="G52">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="H52">
-        <v>0.61</v>
+        <v>0.62</v>
       </c>
       <c r="I52">
-        <v>0.56000000000000005</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J52">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="K52">
-        <v>0.65</v>
+        <v>0.68</v>
       </c>
       <c r="L52">
-        <v>0.67</v>
+        <v>0.69</v>
       </c>
       <c r="N52" t="s">
         <v>11</v>
@@ -23549,34 +25061,34 @@
         <v>12</v>
       </c>
       <c r="B53">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="C53">
         <v>0.75</v>
       </c>
       <c r="D53">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="E53">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="F53">
-        <v>0.8</v>
+        <v>0.81</v>
       </c>
       <c r="G53">
         <v>0.82</v>
       </c>
       <c r="H53">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="I53">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="J53">
         <v>0.84</v>
       </c>
       <c r="K53">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="L53">
         <v>0.89</v>
@@ -23668,16 +25180,16 @@
         <v>0.8</v>
       </c>
       <c r="E54">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="F54">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="G54">
         <v>0.87</v>
       </c>
       <c r="H54">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="I54">
         <v>0.9</v>
@@ -23886,37 +25398,37 @@
         <v>11</v>
       </c>
       <c r="B59">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="C59">
-        <v>0.49</v>
+        <v>0.46</v>
       </c>
       <c r="D59">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="E59">
-        <v>0.82</v>
+        <v>0.76</v>
       </c>
       <c r="F59">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
       <c r="G59">
         <v>0.78</v>
       </c>
       <c r="H59">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="I59">
+        <v>0.89</v>
+      </c>
+      <c r="J59">
+        <v>0.88</v>
+      </c>
+      <c r="K59">
+        <v>0.88</v>
+      </c>
+      <c r="L59">
         <v>0.91</v>
-      </c>
-      <c r="J59">
-        <v>0.89</v>
-      </c>
-      <c r="K59">
-        <v>0.9</v>
-      </c>
-      <c r="L59">
-        <v>0.92</v>
       </c>
       <c r="N59" t="s">
         <v>11</v>
@@ -23996,37 +25508,37 @@
         <v>12</v>
       </c>
       <c r="B60">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
       <c r="C60">
+        <v>0.34</v>
+      </c>
+      <c r="D60">
         <v>0.39</v>
       </c>
-      <c r="D60">
-        <v>0.43</v>
-      </c>
       <c r="E60">
-        <v>0.48</v>
+        <v>0.45</v>
       </c>
       <c r="F60">
-        <v>0.73</v>
+        <v>0.7</v>
       </c>
       <c r="G60">
-        <v>0.62</v>
+        <v>0.59</v>
       </c>
       <c r="H60">
-        <v>0.57999999999999996</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I60">
-        <v>0.74</v>
+        <v>0.68</v>
       </c>
       <c r="J60">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="K60">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="L60">
-        <v>0.7</v>
+        <v>0.69</v>
       </c>
       <c r="N60" t="s">
         <v>12</v>
@@ -24109,28 +25621,28 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="C61">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="D61">
-        <v>0.57999999999999996</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="E61">
-        <v>0.57999999999999996</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F61">
-        <v>0.62</v>
+        <v>0.6</v>
       </c>
       <c r="G61">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="H61">
         <v>0.71</v>
       </c>
       <c r="I61">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="J61">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="K61">
         <v>0.85</v>
@@ -24211,12 +25723,12 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>0</v>
       </c>
@@ -24251,7 +25763,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>11</v>
       </c>
@@ -24300,7 +25812,7 @@
         <v>0.74659753726506806</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>12</v>
       </c>
@@ -24349,7 +25861,7 @@
         <v>0.68512110726643594</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>13</v>
       </c>
@@ -24386,6 +25898,893 @@
       <c r="L69" s="1">
         <v>0.74</v>
       </c>
+    </row>
+    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1</v>
+      </c>
+      <c r="D73" t="s">
+        <v>2</v>
+      </c>
+      <c r="E73" t="s">
+        <v>3</v>
+      </c>
+      <c r="F73" t="s">
+        <v>4</v>
+      </c>
+      <c r="G73" t="s">
+        <v>5</v>
+      </c>
+      <c r="H73" t="s">
+        <v>6</v>
+      </c>
+      <c r="I73" t="s">
+        <v>7</v>
+      </c>
+      <c r="J73" t="s">
+        <v>8</v>
+      </c>
+      <c r="K73" t="s">
+        <v>9</v>
+      </c>
+      <c r="L73" t="s">
+        <v>10</v>
+      </c>
+      <c r="M73" t="s">
+        <v>30</v>
+      </c>
+      <c r="N73" t="s">
+        <v>31</v>
+      </c>
+      <c r="O73" t="s">
+        <v>32</v>
+      </c>
+      <c r="R73" t="s">
+        <v>0</v>
+      </c>
+      <c r="S73" t="s">
+        <v>1</v>
+      </c>
+      <c r="T73" t="s">
+        <v>2</v>
+      </c>
+      <c r="U73" t="s">
+        <v>3</v>
+      </c>
+      <c r="V73" t="s">
+        <v>4</v>
+      </c>
+      <c r="W73" t="s">
+        <v>5</v>
+      </c>
+      <c r="X73" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA73" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB73" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC73" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD73" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE73" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="C74" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="D74" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="E74" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="F74" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="H74" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="I74" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="J74" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="K74" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="L74" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="M74" t="s">
+        <v>33</v>
+      </c>
+      <c r="N74" s="1">
+        <v>5</v>
+      </c>
+      <c r="O74" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>11</v>
+      </c>
+      <c r="R74" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="S74" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="T74" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="U74" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="V74" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="W74" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="X74" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="Y74" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="Z74" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AA74" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="AB74" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="AC74" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD74" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE74" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>12</v>
+      </c>
+      <c r="B75" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="E75" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="F75" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="H75" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="I75" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="J75" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="K75" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="L75" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="M75" t="s">
+        <v>33</v>
+      </c>
+      <c r="N75" s="1">
+        <v>5</v>
+      </c>
+      <c r="O75" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>12</v>
+      </c>
+      <c r="R75" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="S75" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="T75" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="U75" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="V75" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="W75" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="X75" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="Y75" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="Z75" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="AA75" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="AB75" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="AC75" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD75" s="1">
+        <v>7</v>
+      </c>
+      <c r="AE75" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>13</v>
+      </c>
+      <c r="B76" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="C76" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="E76" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="F76" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="H76" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="I76" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="J76" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="K76" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="L76" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="M76" t="s">
+        <v>34</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O76" s="1">
+        <v>32</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>13</v>
+      </c>
+      <c r="R76" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="S76" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="T76" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="U76" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="V76" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="W76" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="X76" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="Y76" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="Z76" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="AA76" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="AB76" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="AC76" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD76" s="1">
+        <v>20</v>
+      </c>
+      <c r="AE76" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="R77" s="1"/>
+      <c r="S77" s="1"/>
+      <c r="T77" s="1"/>
+      <c r="U77" s="1"/>
+      <c r="V77" s="1"/>
+      <c r="W77" s="1"/>
+      <c r="X77" s="1"/>
+      <c r="Y77" s="1"/>
+      <c r="Z77" s="1"/>
+      <c r="AA77" s="1"/>
+      <c r="AB77" s="1"/>
+      <c r="AD77" s="1"/>
+      <c r="AE77" s="1"/>
+    </row>
+    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="Q78" t="s">
+        <v>33</v>
+      </c>
+      <c r="R78" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="S78" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="T78" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="U78" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="V78" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="W78" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="X78" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="Y78" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="Z78" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="AA78" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="AB78" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="AC78" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD78" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE78" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="Q79" t="s">
+        <v>34</v>
+      </c>
+      <c r="R79" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="S79" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="T79" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="U79" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="V79" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="W79" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="X79" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="Y79" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="Z79" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="AA79" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="AB79" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="AC79" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD79" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE79" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="Q80" t="s">
+        <v>40</v>
+      </c>
+      <c r="R80" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="S80" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="T80" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="U80" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="V80" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="W80" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="X80" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="Y80" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="Z80" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="AA80" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="AB80" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="AC80" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD80" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE80" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="Q81" t="s">
+        <v>39</v>
+      </c>
+      <c r="R81" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="S81" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="T81" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="U81" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="V81" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="W81" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="X81" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="Y81" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="Z81" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="AA81" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="AB81" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="AC81" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="82" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="R82" s="1"/>
+    </row>
+    <row r="83" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="84" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>0</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1</v>
+      </c>
+      <c r="D84" t="s">
+        <v>2</v>
+      </c>
+      <c r="E84" t="s">
+        <v>3</v>
+      </c>
+      <c r="F84" t="s">
+        <v>4</v>
+      </c>
+      <c r="G84" t="s">
+        <v>5</v>
+      </c>
+      <c r="H84" t="s">
+        <v>6</v>
+      </c>
+      <c r="I84" t="s">
+        <v>7</v>
+      </c>
+      <c r="J84" t="s">
+        <v>8</v>
+      </c>
+      <c r="K84" t="s">
+        <v>9</v>
+      </c>
+      <c r="L84" t="s">
+        <v>10</v>
+      </c>
+      <c r="R84" t="s">
+        <v>0</v>
+      </c>
+      <c r="S84" t="s">
+        <v>1</v>
+      </c>
+      <c r="T84" t="s">
+        <v>2</v>
+      </c>
+      <c r="U84" t="s">
+        <v>3</v>
+      </c>
+      <c r="V84" t="s">
+        <v>4</v>
+      </c>
+      <c r="W84" t="s">
+        <v>5</v>
+      </c>
+      <c r="X84" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z84" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA84" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB84" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>11</v>
+      </c>
+      <c r="B85" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="C85" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="D85" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="E85" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="F85" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="G85" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H85" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="I85" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="J85" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="K85" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="L85" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="M85" t="s">
+        <v>33</v>
+      </c>
+      <c r="N85" s="1">
+        <v>5</v>
+      </c>
+      <c r="O85" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>11</v>
+      </c>
+      <c r="R85" s="1"/>
+      <c r="S85" s="1"/>
+      <c r="T85" s="1"/>
+      <c r="U85" s="1"/>
+      <c r="V85" s="1"/>
+      <c r="W85" s="1"/>
+      <c r="X85" s="1"/>
+      <c r="Y85" s="1"/>
+      <c r="Z85" s="1"/>
+      <c r="AA85" s="1"/>
+      <c r="AB85" s="1"/>
+      <c r="AD85" s="1"/>
+      <c r="AE85" s="1"/>
+    </row>
+    <row r="86" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>12</v>
+      </c>
+      <c r="B86" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="C86" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="D86" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="E86" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="F86" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="G86" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="H86" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="I86" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="J86" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="K86" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="L86" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="M86" t="s">
+        <v>33</v>
+      </c>
+      <c r="N86" s="1">
+        <v>5</v>
+      </c>
+      <c r="O86" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>12</v>
+      </c>
+      <c r="R86" s="1"/>
+      <c r="S86" s="1"/>
+      <c r="T86" s="1"/>
+      <c r="U86" s="1"/>
+      <c r="V86" s="1"/>
+      <c r="W86" s="1"/>
+      <c r="X86" s="1"/>
+      <c r="Y86" s="1"/>
+      <c r="Z86" s="1"/>
+      <c r="AA86" s="1"/>
+      <c r="AB86" s="1"/>
+      <c r="AD86" s="1"/>
+      <c r="AE86" s="1"/>
+    </row>
+    <row r="87" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>13</v>
+      </c>
+      <c r="B87" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="C87" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D87" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="E87" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="F87" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="G87" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="H87" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="I87" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="J87" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="K87" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="L87" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="M87" t="s">
+        <v>34</v>
+      </c>
+      <c r="N87" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O87" s="1">
+        <v>32</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>13</v>
+      </c>
+      <c r="R87" s="1"/>
+      <c r="S87" s="1"/>
+      <c r="T87" s="1"/>
+      <c r="U87" s="1"/>
+      <c r="V87" s="1"/>
+      <c r="W87" s="1"/>
+      <c r="X87" s="1"/>
+      <c r="Y87" s="1"/>
+      <c r="Z87" s="1"/>
+      <c r="AA87" s="1"/>
+      <c r="AB87" s="1"/>
+      <c r="AD87" s="1"/>
+      <c r="AE87" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Results/Accuracies.xlsx
+++ b/Results/Accuracies.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\BISS\MSc Thesis\Data\Anonymized Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\BISS\MSc Thesis\GitHub\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7155" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="Accuracies + Sens 3 Classes" sheetId="2" r:id="rId1"/>
@@ -1206,7 +1206,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1232,7 +1231,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1738,7 +1737,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1463246576"/>
@@ -1829,7 +1828,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nl-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1861,7 +1860,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1463251152"/>
@@ -1878,7 +1877,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1904,7 +1902,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1934,7 +1932,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1989,7 +1987,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2015,7 +2012,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2454,7 +2451,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1463246576"/>
@@ -2546,7 +2543,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nl-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2578,7 +2575,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1463251152"/>
@@ -2595,7 +2592,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2621,7 +2617,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2651,7 +2647,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2731,7 +2727,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3170,7 +3166,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1463246576"/>
@@ -3262,7 +3258,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nl-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3294,7 +3290,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1463251152"/>
@@ -3336,7 +3332,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3366,7 +3362,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3446,7 +3442,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3885,7 +3881,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1463246576"/>
@@ -3977,7 +3973,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nl-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4009,7 +4005,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1463251152"/>
@@ -4051,7 +4047,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4081,7 +4077,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4136,7 +4132,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4162,7 +4157,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4668,7 +4663,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1463246576"/>
@@ -4759,7 +4754,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nl-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4791,7 +4786,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1463251152"/>
@@ -4808,7 +4803,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4834,7 +4828,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4864,7 +4858,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4919,7 +4913,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4945,7 +4938,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5451,7 +5444,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1463246576"/>
@@ -5542,7 +5535,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nl-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5574,7 +5567,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1463251152"/>
@@ -5591,7 +5584,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5617,7 +5609,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5647,7 +5639,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5702,7 +5694,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5728,7 +5719,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6167,7 +6158,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1463246576"/>
@@ -6259,7 +6250,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nl-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6291,7 +6282,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1463251152"/>
@@ -6308,7 +6299,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6334,7 +6324,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6364,7 +6354,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6419,7 +6409,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6445,7 +6434,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6884,7 +6873,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1463246576"/>
@@ -6976,7 +6965,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nl-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7008,7 +6997,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1463251152"/>
@@ -7025,7 +7014,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7051,7 +7039,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7081,7 +7069,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7136,7 +7124,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7162,7 +7149,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7601,7 +7588,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1463246576"/>
@@ -7693,7 +7680,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nl-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7725,7 +7712,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1463251152"/>
@@ -7742,7 +7729,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7768,7 +7754,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7798,7 +7784,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7878,7 +7864,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8384,7 +8370,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1463246576"/>
@@ -8475,7 +8461,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nl-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8507,7 +8493,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1463251152"/>
@@ -8549,7 +8535,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8579,7 +8565,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8634,7 +8620,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8660,7 +8645,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9166,7 +9151,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1463246576"/>
@@ -9257,7 +9242,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nl-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9289,7 +9274,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1463251152"/>
@@ -9306,7 +9291,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9332,7 +9316,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9362,7 +9346,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9442,7 +9426,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9948,7 +9932,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1463246576"/>
@@ -10039,7 +10023,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nl-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10071,7 +10055,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1463251152"/>
@@ -10113,7 +10097,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10143,7 +10127,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -16843,7 +16827,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -16873,7 +16863,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -16905,7 +16901,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -16937,7 +16939,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -16969,7 +16977,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -17001,7 +17015,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -17038,7 +17058,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvPr id="14" name="Chart 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -17070,7 +17096,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="15" name="Chart 14"/>
+        <xdr:cNvPr id="15" name="Chart 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -17102,7 +17134,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="16" name="Chart 15"/>
+        <xdr:cNvPr id="16" name="Chart 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -17134,7 +17172,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="17" name="Chart 16"/>
+        <xdr:cNvPr id="17" name="Chart 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -17166,7 +17210,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="18" name="Chart 17"/>
+        <xdr:cNvPr id="18" name="Chart 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -17198,7 +17248,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="19" name="Chart 18"/>
+        <xdr:cNvPr id="19" name="Chart 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -17219,27 +17275,27 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Fail_Sensitivity_wDistinction_Full" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Accuracy_wDistinction_Full" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Accuracy_wDistinction_PartialAsgmts" connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Accuracy_wDistinction_PartialClicks" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Fail_Sensitivity_wDistinction_PartialClicks" connectionId="48" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Accuracy_wDistinction_PartialClicks" connectionId="42" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Accuracy_wDistinction_Full" connectionId="40" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Accuracy_wDistinction_Full" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Fail_Sensitivity_wDistinction_PartialClicks" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Accuracy_wDistinction_PartialAsgmts" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Accuracy_wDistinction_PartialClicks" connectionId="30" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17247,103 +17303,103 @@
 </file>
 
 <file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Fail_Sensitivity_wDistinction_Full" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Accuracy_wDistinction_PartialAsgmts" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Fail_Sensitivity_wDistinction_PartialClicks" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Accuracy_wDistinction_PartialClicks" connectionId="42" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Fail_Sensitivity_wDistinction_PartialAsgmts" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Fail_Sensitivity_wDistinction_PartialClicks" connectionId="36" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Accuracy_wDistinction_PartialAsgmts" connectionId="41" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Fail_Sensitivity_wDistinction_Full" connectionId="34" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Fail_Sensitivity_wDistinction_PartialAsgmts" connectionId="35" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Fail_Sensitivity_wDistinction_Full" connectionId="46" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Accuracy_wDistinction_PartialClicks" connectionId="30" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Fail_Sensitivity_wDistinction_Full" connectionId="34" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Accuracy_wDistinction_PartialAsgmts" connectionId="41" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Fail_Sensitivity_wDistinction_PartialAsgmts" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Accuracy_wDistinction_Full" connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Accuracy_wDistinction_PartialClicks" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Accuracy_wDistinction_PartialAsgmts" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Accuracy_wDistinction_Full" connectionId="40" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Fail_Sensitivity_PartialAsgmts" connectionId="32" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Fail_Sensitivity_Full" connectionId="43" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Fail_Sensitivity_PartialClicks" connectionId="33" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Accuracy_Full" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Accuracy_PartialClicks" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Fail_Sensitivity_PartialClicks" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Accuracy_PartialAsgmts" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Accuracy_wDistinction_Full" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Fail_Sensitivity_PartialAsgmts" connectionId="44" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Accuracy_PartialAsgmts" connectionId="38" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Accuracy_PartialClicks" connectionId="39" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Accuracy_PartialClicks" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Fail_Sensitivity_Full" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Accuracy_Full" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable36.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Fail_Sensitivity_PartialAsgmts" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable37.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Fail_Sensitivity_PartialAsgmts" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Fail_Sensitivity_wDistinction_PartialAsgmts" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Fail_Sensitivity_Full" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Fail_Sensitivity_Full" connectionId="43" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Fail_Sensitivity_PartialClicks" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Accuracy_PartialAsgmts" connectionId="38" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Fail_Sensitivity_PartialAsgmts" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Accuracy_PartialAsgmts" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable36.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Fail_Sensitivity_Full" connectionId="31" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable37.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Accuracy_PartialClicks" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable38.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Accuracy_PartialClicks" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Fail_Sensitivity_PartialClicks" connectionId="45" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable39.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17351,63 +17407,63 @@
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Accuracy_wDistinction_PartialAsgmts" connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Fail_Sensitivity_wDistinction_Full" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable40.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Fail_Sensitivity_PartialAsgmts" connectionId="32" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable41.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Accuracy_Full" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable42.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Accuracy_PartialClicks" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable43.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Accuracy_PartialAsgmts" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable44.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Fail_Sensitivity_Full" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable45.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Fail_Sensitivity_PartialClicks" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable46.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Fail_Sensitivity_PartialClicks" connectionId="33" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable47.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Accuracy_Full" connectionId="37" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable42.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Fail_Sensitivity_PartialAsgmts" connectionId="44" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable43.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Fail_Sensitivity_PartialClicks" connectionId="45" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable44.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Fail_Sensitivity_PartialClicks" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable45.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Accuracy_Full" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable46.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Accuracy_PartialClicks" connectionId="39" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable47.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Accuracy_Full" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable48.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Accuracy_Full" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Fail_Sensitivity_Full" connectionId="31" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Fail_Sensitivity_wDistinction_PartialClicks" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Fail_Sensitivity_wDistinction_PartialAsgmts" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Fail_Sensitivity_wDistinction_PartialClicks" connectionId="36" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Fail_Sensitivity_wDistinction_Full" connectionId="46" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Accuracy_wDistinction_Full" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Accuracy_wDistinction_PartialClicks" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Fail_Sensitivity_wDistinction_Full" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Accuracy_wDistinction_Full" connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Accuracy_wDistinction_PartialClicks" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Accuracy_wDistinction_PartialAsgmts" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17486,6 +17542,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -17521,6 +17594,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -17675,8 +17765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL83"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="U86" sqref="U86"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="AA74" sqref="AA74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22124,8 +22214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="Y74" sqref="Y74"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="U75" sqref="U75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Results/Accuracies.xlsx
+++ b/Results/Accuracies.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\BISS\MSc Thesis\GitHub\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\BISS\MSc Thesis\Data\Anonymized Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -944,7 +944,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="42">
   <si>
     <t>PreCourse</t>
   </si>
@@ -1063,16 +1063,7 @@
     <t>LSTM Fail Sensitivities (normalized)</t>
   </si>
   <si>
-    <t>SGD</t>
-  </si>
-  <si>
-    <t>adaD</t>
-  </si>
-  <si>
     <t>ES 5</t>
-  </si>
-  <si>
-    <t>ES 10</t>
   </si>
   <si>
     <t>adadelta</t>
@@ -1206,6 +1197,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1231,7 +1223,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1737,7 +1729,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1463246576"/>
@@ -1828,7 +1820,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nl-NL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1860,7 +1852,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1463251152"/>
@@ -1877,6 +1869,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1902,7 +1895,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1932,7 +1925,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nl-NL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1987,6 +1980,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2012,7 +2006,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2351,42 +2345,42 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Accuracies + Sens 2 Classes'!$B$85:$L$85</c:f>
+              <c:f>'Accuracies + Sens 2 Classes'!$R$85:$AB$85</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.38</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.51</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.52</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.51</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.81</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.57999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.77</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.78</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.74</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.88</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.53</c:v>
+                  <c:v>0.59</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2451,7 +2445,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1463246576"/>
@@ -2543,7 +2537,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nl-NL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2575,7 +2569,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1463251152"/>
@@ -2592,6 +2586,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2617,7 +2612,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2647,7 +2642,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nl-NL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2702,6 +2697,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2727,7 +2723,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3066,42 +3062,42 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Accuracies + Sens 2 Classes'!$B$86:$L$86</c:f>
+              <c:f>'Accuracies + Sens 2 Classes'!$R$86:$AB$86</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.22</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.38</c:v>
+                  <c:v>0.21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.39</c:v>
+                  <c:v>0.23</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.82</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.59</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.39</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.88</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.61</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.71</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.96</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3166,7 +3162,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1463246576"/>
@@ -3258,7 +3254,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nl-NL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3290,7 +3286,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1463251152"/>
@@ -3307,6 +3303,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3332,7 +3329,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3362,7 +3359,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nl-NL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3417,6 +3414,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3442,7 +3440,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3781,42 +3779,42 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Accuracies + Sens 2 Classes'!$B$87:$L$87</c:f>
+              <c:f>'Accuracies + Sens 2 Classes'!$R$87:$AB$87</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.36</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.56999999999999995</c:v>
+                  <c:v>0.74</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.61</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.75</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.59</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.72</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.64</c:v>
+                  <c:v>0.38</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.78</c:v>
+                  <c:v>0.69</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.87</c:v>
+                  <c:v>0.69</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.81</c:v>
+                  <c:v>0.74</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.83</c:v>
+                  <c:v>0.86</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3881,7 +3879,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1463246576"/>
@@ -3973,7 +3971,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nl-NL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4005,7 +4003,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1463251152"/>
@@ -4022,6 +4020,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4047,7 +4046,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4077,7 +4076,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nl-NL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4132,6 +4131,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4157,7 +4157,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4663,7 +4663,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1463246576"/>
@@ -4754,7 +4754,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nl-NL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4786,7 +4786,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1463251152"/>
@@ -4803,6 +4803,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4828,7 +4829,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4858,7 +4859,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nl-NL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4913,6 +4914,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4938,7 +4940,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5444,7 +5446,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1463246576"/>
@@ -5535,7 +5537,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nl-NL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5567,7 +5569,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1463251152"/>
@@ -5584,6 +5586,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5609,7 +5612,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5639,7 +5642,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nl-NL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5694,6 +5697,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5719,7 +5723,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6058,42 +6062,42 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Accuracies + Sens 3 Classes'!$B$81:$L$81</c:f>
+              <c:f>'Accuracies + Sens 3 Classes'!$S$81:$AC$81</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.17</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.52</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.51</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.63</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.59</c:v>
+                  <c:v>0.74</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.76</c:v>
+                  <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.79</c:v>
+                  <c:v>0.38</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.8</c:v>
+                  <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.94</c:v>
+                  <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.91</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.93</c:v>
+                  <c:v>0.43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6158,7 +6162,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1463246576"/>
@@ -6250,7 +6254,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nl-NL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6282,7 +6286,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1463251152"/>
@@ -6299,6 +6303,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6324,7 +6329,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6354,7 +6359,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nl-NL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6409,6 +6414,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6434,7 +6440,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6773,42 +6779,42 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Accuracies + Sens 3 Classes'!$B$82:$L$82</c:f>
+              <c:f>'Accuracies + Sens 3 Classes'!$S$82:$AC$82</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.43</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33</c:v>
+                  <c:v>0.28999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.7</c:v>
+                  <c:v>0.38</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.52</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.86</c:v>
+                  <c:v>0.41</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.64</c:v>
+                  <c:v>0.47</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.53</c:v>
+                  <c:v>0.48</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.92</c:v>
+                  <c:v>0.51</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.75</c:v>
+                  <c:v>0.61</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.81</c:v>
+                  <c:v>0.71</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.61</c:v>
+                  <c:v>0.74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6873,7 +6879,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1463246576"/>
@@ -6965,7 +6971,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nl-NL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6997,7 +7003,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1463251152"/>
@@ -7014,6 +7020,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7039,7 +7046,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7069,7 +7076,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nl-NL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7124,6 +7131,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7149,7 +7157,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7488,42 +7496,42 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Accuracies + Sens 3 Classes'!$B$83:$L$83</c:f>
+              <c:f>'Accuracies + Sens 3 Classes'!$S$83:$AC$83</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.09</c:v>
+                  <c:v>0.39</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.62</c:v>
+                  <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.69</c:v>
+                  <c:v>0.53</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.68</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.64</c:v>
+                  <c:v>0.48</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.78</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.65</c:v>
+                  <c:v>0.63</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.74</c:v>
+                  <c:v>0.51</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.8</c:v>
+                  <c:v>0.81</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.81</c:v>
+                  <c:v>0.88</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.81</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7588,7 +7596,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1463246576"/>
@@ -7680,7 +7688,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nl-NL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7712,7 +7720,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1463251152"/>
@@ -7729,6 +7737,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7754,7 +7763,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7784,7 +7793,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nl-NL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7839,6 +7848,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7864,7 +7874,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8370,7 +8380,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1463246576"/>
@@ -8461,7 +8471,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nl-NL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8493,7 +8503,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1463251152"/>
@@ -8510,6 +8520,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8535,7 +8546,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8565,7 +8576,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nl-NL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8620,6 +8631,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8645,7 +8657,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9151,7 +9163,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1463246576"/>
@@ -9242,7 +9254,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nl-NL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9274,7 +9286,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1463251152"/>
@@ -9291,6 +9303,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9316,7 +9329,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9346,7 +9359,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nl-NL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9401,6 +9414,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9426,7 +9440,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9932,7 +9946,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1463246576"/>
@@ -10023,7 +10037,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nl-NL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10055,7 +10069,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1463251152"/>
@@ -10072,6 +10086,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10097,7 +10112,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10127,7 +10142,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nl-NL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -16827,13 +16842,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -16863,13 +16872,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -16901,13 +16904,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -16939,13 +16936,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -16977,13 +16968,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -17015,13 +17000,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -17058,13 +17037,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="14" name="Chart 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="14" name="Chart 13"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -17096,13 +17069,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="15" name="Chart 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="15" name="Chart 14"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -17134,13 +17101,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="16" name="Chart 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="16" name="Chart 15"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -17172,13 +17133,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="17" name="Chart 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="17" name="Chart 16"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -17210,13 +17165,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="18" name="Chart 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="18" name="Chart 17"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -17248,13 +17197,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="19" name="Chart 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="19" name="Chart 18"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -17275,195 +17218,195 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Accuracy_wDistinction_PartialAsgmts" connectionId="41" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Fail_Sensitivity_wDistinction_Full" connectionId="46" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Accuracy_wDistinction_PartialClicks" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Accuracy_wDistinction_Full" connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Accuracy_wDistinction_PartialAsgmts" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Accuracy_wDistinction_PartialAsgmts" connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Accuracy_wDistinction_PartialClicks" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Fail_Sensitivity_wDistinction_PartialClicks" connectionId="48" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Fail_Sensitivity_wDistinction_PartialClicks" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Accuracy_wDistinction_PartialClicks" connectionId="30" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Fail_Sensitivity_wDistinction_PartialAsgmts" connectionId="47" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Fail_Sensitivity_wDistinction_Full" connectionId="34" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Fail_Sensitivity_wDistinction_Full" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Accuracy_wDistinction_PartialAsgmts" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Fail_Sensitivity_wDistinction_PartialClicks" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Accuracy_wDistinction_PartialClicks" connectionId="42" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Fail_Sensitivity_wDistinction_PartialClicks" connectionId="36" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Fail_Sensitivity_PartialClicks" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Fail_Sensitivity_PartialClicks" connectionId="33" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Accuracy_Full" connectionId="37" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Fail_Sensitivity_Full" connectionId="31" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Fail_Sensitivity_Full" connectionId="43" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Fail_Sensitivity_wDistinction_PartialAsgmts" connectionId="35" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Accuracy_Full" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Accuracy_PartialClicks" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Fail_Sensitivity_PartialClicks" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Accuracy_PartialAsgmts" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Fail_Sensitivity_PartialAsgmts" connectionId="44" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Accuracy_PartialAsgmts" connectionId="38" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable36.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Accuracy_PartialClicks" connectionId="39" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable37.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Accuracy_PartialClicks" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable38.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Fail_Sensitivity_Full" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable39.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Accuracy_Full" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Accuracy_wDistinction_Full" connectionId="40" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable40.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Fail_Sensitivity_PartialAsgmts" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable41.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Fail_Sensitivity_PartialAsgmts" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable42.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Fail_Sensitivity_PartialClicks" connectionId="45" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable43.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Accuracy_PartialAsgmts" connectionId="26" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable44.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Fail_Sensitivity_PartialAsgmts" connectionId="32" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable45.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Accuracy_Full" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable46.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Accuracy_PartialClicks" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable47.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Accuracy_PartialAsgmts" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable48.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Fail_Sensitivity_Full" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Accuracy_wDistinction_Full" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Accuracy_wDistinction_PartialAsgmts" connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Accuracy_wDistinction_PartialClicks" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Fail_Sensitivity_wDistinction_PartialClicks" connectionId="48" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Fail_Sensitivity_wDistinction_PartialClicks" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Accuracy_wDistinction_PartialClicks" connectionId="30" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Fail_Sensitivity_wDistinction_PartialAsgmts" connectionId="47" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Fail_Sensitivity_wDistinction_Full" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Accuracy_wDistinction_PartialAsgmts" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Fail_Sensitivity_wDistinction_PartialClicks" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Accuracy_wDistinction_PartialClicks" connectionId="42" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Fail_Sensitivity_wDistinction_PartialAsgmts" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Fail_Sensitivity_wDistinction_PartialClicks" connectionId="36" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Accuracy_wDistinction_PartialAsgmts" connectionId="41" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Fail_Sensitivity_wDistinction_Full" connectionId="34" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Fail_Sensitivity_wDistinction_PartialAsgmts" connectionId="35" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Accuracy_wDistinction_Full" connectionId="40" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Fail_Sensitivity_Full" connectionId="43" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Accuracy_Full" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Accuracy_PartialClicks" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Fail_Sensitivity_PartialClicks" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Accuracy_PartialAsgmts" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Accuracy_wDistinction_Full" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Fail_Sensitivity_PartialAsgmts" connectionId="44" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Accuracy_PartialAsgmts" connectionId="38" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Accuracy_PartialClicks" connectionId="39" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Accuracy_PartialClicks" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Fail_Sensitivity_Full" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Accuracy_Full" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable36.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Fail_Sensitivity_PartialAsgmts" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable37.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Fail_Sensitivity_PartialAsgmts" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable38.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Fail_Sensitivity_PartialClicks" connectionId="45" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable39.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Accuracy_PartialAsgmts" connectionId="26" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Fail_Sensitivity_wDistinction_Full" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable40.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Fail_Sensitivity_PartialAsgmts" connectionId="32" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable41.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Accuracy_Full" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable42.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Accuracy_PartialClicks" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable43.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Accuracy_PartialAsgmts" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable44.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Fail_Sensitivity_Full" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable45.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Fail_Sensitivity_PartialClicks" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable46.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Fail_Sensitivity_PartialClicks" connectionId="33" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable47.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Accuracy_Full" connectionId="37" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable48.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Fail_Sensitivity_Full" connectionId="31" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Fail_Sensitivity_wDistinction_PartialAsgmts" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Fail_Sensitivity_wDistinction_Full" connectionId="46" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Accuracy_wDistinction_PartialClicks" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Accuracy_wDistinction_Full" connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Accuracy_wDistinction_PartialAsgmts" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17542,23 +17485,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -17594,23 +17520,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -17765,8 +17674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="AA74" sqref="AA74"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="AD134" sqref="AD134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21820,7 +21729,7 @@
         <v>34</v>
       </c>
       <c r="AE75" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AF75">
         <v>1</v>
@@ -21912,7 +21821,7 @@
         <v>34</v>
       </c>
       <c r="AE76" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AF76">
         <v>1</v>
@@ -22043,17 +21952,39 @@
       <c r="R81" t="s">
         <v>11</v>
       </c>
-      <c r="S81" s="1"/>
-      <c r="T81" s="1"/>
-      <c r="U81" s="1"/>
-      <c r="V81" s="1"/>
-      <c r="W81" s="1"/>
-      <c r="X81" s="1"/>
-      <c r="Y81" s="1"/>
-      <c r="Z81" s="1"/>
-      <c r="AA81" s="1"/>
-      <c r="AB81" s="1"/>
-      <c r="AC81" s="1"/>
+      <c r="S81" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="T81" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="U81" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="V81" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="W81" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="X81" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="Y81" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="Z81" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="AA81" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="AB81" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="AC81" s="1">
+        <v>0.43</v>
+      </c>
       <c r="AD81" t="s">
         <v>33</v>
       </c>
@@ -22113,17 +22044,39 @@
       <c r="R82" t="s">
         <v>12</v>
       </c>
-      <c r="S82" s="1"/>
-      <c r="T82" s="1"/>
-      <c r="U82" s="1"/>
-      <c r="V82" s="1"/>
-      <c r="W82" s="1"/>
-      <c r="X82" s="1"/>
-      <c r="Y82" s="1"/>
-      <c r="Z82" s="1"/>
-      <c r="AA82" s="1"/>
-      <c r="AB82" s="1"/>
-      <c r="AC82" s="1"/>
+      <c r="S82" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="T82" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="U82" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="V82" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="W82" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="X82" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="Y82" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="Z82" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="AA82" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="AB82" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="AC82" s="1">
+        <v>0.74</v>
+      </c>
       <c r="AD82" t="s">
         <v>33</v>
       </c>
@@ -22183,17 +22136,39 @@
       <c r="R83" t="s">
         <v>13</v>
       </c>
-      <c r="S83" s="1"/>
-      <c r="T83" s="1"/>
-      <c r="U83" s="1"/>
-      <c r="V83" s="1"/>
-      <c r="W83" s="1"/>
-      <c r="X83" s="1"/>
-      <c r="Y83" s="1"/>
-      <c r="Z83" s="1"/>
-      <c r="AA83" s="1"/>
-      <c r="AB83" s="1"/>
-      <c r="AC83" s="1"/>
+      <c r="S83" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="T83" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="U83" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="V83" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="W83" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="X83" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Y83" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="Z83" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="AA83" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="AB83" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="AC83" s="1">
+        <v>0.85</v>
+      </c>
       <c r="AD83" t="s">
         <v>33</v>
       </c>
@@ -22214,8 +22189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL87"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="U75" sqref="U75"/>
+    <sheetView topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="AB147" sqref="AB147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26350,7 +26325,7 @@
         <v>0.91</v>
       </c>
       <c r="AC76" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AD76" s="1">
         <v>20</v>
@@ -26401,51 +26376,19 @@
       <c r="L78" s="1"/>
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
-      <c r="Q78" t="s">
-        <v>33</v>
-      </c>
-      <c r="R78" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="S78" s="1">
-        <v>0.74</v>
-      </c>
-      <c r="T78" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="U78" s="1">
-        <v>0.82</v>
-      </c>
-      <c r="V78" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="W78" s="1">
-        <v>0.84</v>
-      </c>
-      <c r="X78" s="1">
-        <v>0.88</v>
-      </c>
-      <c r="Y78" s="1">
-        <v>0.88</v>
-      </c>
-      <c r="Z78" s="1">
-        <v>0.86</v>
-      </c>
-      <c r="AA78" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="AB78" s="1">
-        <v>0.92</v>
-      </c>
-      <c r="AC78" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD78" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE78" s="1">
-        <v>1</v>
-      </c>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+      <c r="T78" s="1"/>
+      <c r="U78" s="1"/>
+      <c r="V78" s="1"/>
+      <c r="W78" s="1"/>
+      <c r="X78" s="1"/>
+      <c r="Y78" s="1"/>
+      <c r="Z78" s="1"/>
+      <c r="AA78" s="1"/>
+      <c r="AB78" s="1"/>
+      <c r="AD78" s="1"/>
+      <c r="AE78" s="1"/>
     </row>
     <row r="79" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
@@ -26461,51 +26404,19 @@
       <c r="L79" s="1"/>
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
-      <c r="Q79" t="s">
-        <v>34</v>
-      </c>
-      <c r="R79" s="1">
-        <v>0.66</v>
-      </c>
-      <c r="S79" s="1">
-        <v>0.71</v>
-      </c>
-      <c r="T79" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="U79" s="1">
-        <v>0.76</v>
-      </c>
-      <c r="V79" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="W79" s="1">
-        <v>0.87</v>
-      </c>
-      <c r="X79" s="1">
-        <v>0.89</v>
-      </c>
-      <c r="Y79" s="1">
-        <v>0.89</v>
-      </c>
-      <c r="Z79" s="1">
-        <v>0.88</v>
-      </c>
-      <c r="AA79" s="1">
-        <v>0.91</v>
-      </c>
-      <c r="AB79" s="1">
-        <v>0.91</v>
-      </c>
-      <c r="AC79" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD79" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE79" s="1">
-        <v>1</v>
-      </c>
+      <c r="R79" s="1"/>
+      <c r="S79" s="1"/>
+      <c r="T79" s="1"/>
+      <c r="U79" s="1"/>
+      <c r="V79" s="1"/>
+      <c r="W79" s="1"/>
+      <c r="X79" s="1"/>
+      <c r="Y79" s="1"/>
+      <c r="Z79" s="1"/>
+      <c r="AA79" s="1"/>
+      <c r="AB79" s="1"/>
+      <c r="AD79" s="1"/>
+      <c r="AE79" s="1"/>
     </row>
     <row r="80" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
@@ -26521,92 +26432,32 @@
       <c r="L80" s="1"/>
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
-      <c r="Q80" t="s">
-        <v>40</v>
-      </c>
-      <c r="R80" s="1">
-        <v>0.66</v>
-      </c>
-      <c r="S80" s="1">
-        <v>0.73</v>
-      </c>
-      <c r="T80" s="1">
-        <v>0.76</v>
-      </c>
-      <c r="U80" s="1">
-        <v>0.82</v>
-      </c>
-      <c r="V80" s="1">
-        <v>0.82</v>
-      </c>
-      <c r="W80" s="1">
-        <v>0.84</v>
-      </c>
-      <c r="X80" s="1">
-        <v>0.88</v>
-      </c>
-      <c r="Y80" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="Z80" s="1">
-        <v>0.86</v>
-      </c>
-      <c r="AA80" s="1">
-        <v>0.91</v>
-      </c>
-      <c r="AB80" s="1">
-        <v>0.93</v>
-      </c>
-      <c r="AC80" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD80" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE80" s="1">
-        <v>1</v>
-      </c>
+      <c r="R80" s="1"/>
+      <c r="S80" s="1"/>
+      <c r="T80" s="1"/>
+      <c r="U80" s="1"/>
+      <c r="V80" s="1"/>
+      <c r="W80" s="1"/>
+      <c r="X80" s="1"/>
+      <c r="Y80" s="1"/>
+      <c r="Z80" s="1"/>
+      <c r="AA80" s="1"/>
+      <c r="AB80" s="1"/>
+      <c r="AD80" s="1"/>
+      <c r="AE80" s="1"/>
     </row>
     <row r="81" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="Q81" t="s">
-        <v>39</v>
-      </c>
-      <c r="R81" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="S81" s="1">
-        <v>0.71</v>
-      </c>
-      <c r="T81" s="1">
-        <v>0.77</v>
-      </c>
-      <c r="U81" s="1">
-        <v>0.82</v>
-      </c>
-      <c r="V81" s="1">
-        <v>0.82</v>
-      </c>
-      <c r="W81" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="X81" s="1">
-        <v>0.88</v>
-      </c>
-      <c r="Y81" s="1">
-        <v>0.88</v>
-      </c>
-      <c r="Z81" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="AA81" s="1">
-        <v>0.91</v>
-      </c>
-      <c r="AB81" s="1">
-        <v>0.93</v>
-      </c>
-      <c r="AC81" t="s">
-        <v>39</v>
-      </c>
+      <c r="R81" s="1"/>
+      <c r="S81" s="1"/>
+      <c r="T81" s="1"/>
+      <c r="U81" s="1"/>
+      <c r="V81" s="1"/>
+      <c r="W81" s="1"/>
+      <c r="X81" s="1"/>
+      <c r="Y81" s="1"/>
+      <c r="Z81" s="1"/>
+      <c r="AA81" s="1"/>
+      <c r="AB81" s="1"/>
     </row>
     <row r="82" spans="1:31" x14ac:dyDescent="0.25">
       <c r="R82" s="1"/>
@@ -26736,17 +26587,39 @@
       <c r="Q85" t="s">
         <v>11</v>
       </c>
-      <c r="R85" s="1"/>
-      <c r="S85" s="1"/>
-      <c r="T85" s="1"/>
-      <c r="U85" s="1"/>
-      <c r="V85" s="1"/>
-      <c r="W85" s="1"/>
-      <c r="X85" s="1"/>
-      <c r="Y85" s="1"/>
-      <c r="Z85" s="1"/>
-      <c r="AA85" s="1"/>
-      <c r="AB85" s="1"/>
+      <c r="R85" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="S85" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="T85" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="U85" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="V85" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="W85" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="X85" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="Y85" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="Z85" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AA85" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="AB85" s="1">
+        <v>0.59</v>
+      </c>
       <c r="AD85" s="1"/>
       <c r="AE85" s="1"/>
     </row>
@@ -26799,17 +26672,39 @@
       <c r="Q86" t="s">
         <v>12</v>
       </c>
-      <c r="R86" s="1"/>
-      <c r="S86" s="1"/>
-      <c r="T86" s="1"/>
-      <c r="U86" s="1"/>
-      <c r="V86" s="1"/>
-      <c r="W86" s="1"/>
-      <c r="X86" s="1"/>
-      <c r="Y86" s="1"/>
-      <c r="Z86" s="1"/>
-      <c r="AA86" s="1"/>
-      <c r="AB86" s="1"/>
+      <c r="R86" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="S86" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="T86" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="U86" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="V86" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="W86" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="X86" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="Y86" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="Z86" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="AA86" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AB86" s="1">
+        <v>0.82</v>
+      </c>
       <c r="AD86" s="1"/>
       <c r="AE86" s="1"/>
     </row>
@@ -26862,17 +26757,39 @@
       <c r="Q87" t="s">
         <v>13</v>
       </c>
-      <c r="R87" s="1"/>
-      <c r="S87" s="1"/>
-      <c r="T87" s="1"/>
-      <c r="U87" s="1"/>
-      <c r="V87" s="1"/>
-      <c r="W87" s="1"/>
-      <c r="X87" s="1"/>
-      <c r="Y87" s="1"/>
-      <c r="Z87" s="1"/>
-      <c r="AA87" s="1"/>
-      <c r="AB87" s="1"/>
+      <c r="R87" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="S87" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="T87" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="U87" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="V87" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="W87" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="X87" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="Y87" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="Z87" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="AA87" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="AB87" s="1">
+        <v>0.86</v>
+      </c>
       <c r="AD87" s="1"/>
       <c r="AE87" s="1"/>
     </row>

--- a/Results/Accuracies.xlsx
+++ b/Results/Accuracies.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7155" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Accuracies + Sens 3 Classes" sheetId="2" r:id="rId1"/>
@@ -944,7 +944,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="43">
   <si>
     <t>PreCourse</t>
   </si>
@@ -1070,6 +1070,9 @@
   </si>
   <si>
     <t>ES 4k</t>
+  </si>
+  <si>
+    <t>lr</t>
   </si>
 </sst>
 </file>
@@ -1197,7 +1200,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1743,7 +1745,7 @@
         <c:axId val="1463246576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.5"/>
+          <c:min val="0.4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1869,7 +1871,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3414,7 +3415,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4020,7 +4020,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4914,7 +4913,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5586,7 +5584,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6414,7 +6411,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7020,7 +7016,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7131,7 +7126,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7737,7 +7731,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7848,7 +7841,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8394,7 +8386,8 @@
         <c:axId val="1463246576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.5"/>
+          <c:max val="0.95000000000000007"/>
+          <c:min val="0.60000000000000009"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -8520,7 +8513,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9960,7 +9952,7 @@
         <c:axId val="1463246576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.5"/>
+          <c:min val="0.60000000000000009"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -17218,47 +17210,47 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Accuracy_wDistinction_PartialAsgmts" connectionId="41" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Fail_Sensitivity_wDistinction_Full" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Accuracy_wDistinction_PartialClicks" connectionId="30" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Fail_Sensitivity_wDistinction_PartialAsgmts" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Fail_Sensitivity_wDistinction_PartialClicks" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Accuracy_wDistinction_PartialAsgmts" connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Accuracy_wDistinction_Full" connectionId="40" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Accuracy_wDistinction_PartialClicks" connectionId="42" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Fail_Sensitivity_wDistinction_Full" connectionId="46" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Accuracy_wDistinction_PartialClicks" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Accuracy_wDistinction_Full" connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Accuracy_wDistinction_PartialAsgmts" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Accuracy_wDistinction_PartialAsgmts" connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Accuracy_wDistinction_PartialClicks" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Fail_Sensitivity_wDistinction_PartialClicks" connectionId="48" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Fail_Sensitivity_wDistinction_PartialClicks" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Accuracy_wDistinction_Full" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Accuracy_wDistinction_PartialClicks" connectionId="30" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Fail_Sensitivity_wDistinction_PartialAsgmts" connectionId="47" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Fail_Sensitivity_wDistinction_PartialAsgmts" connectionId="47" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Accuracy_wDistinction_PartialClicks" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17266,27 +17258,27 @@
 </file>
 
 <file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Fail_Sensitivity_wDistinction_Full" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Accuracy_wDistinction_PartialAsgmts" connectionId="41" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Accuracy_wDistinction_PartialAsgmts" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Fail_Sensitivity_wDistinction_PartialClicks" connectionId="36" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Fail_Sensitivity_wDistinction_PartialClicks" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Fail_Sensitivity_wDistinction_PartialClicks" connectionId="48" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Accuracy_wDistinction_PartialClicks" connectionId="42" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Accuracy_wDistinction_PartialClicks" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Fail_Sensitivity_wDistinction_PartialClicks" connectionId="36" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Fail_Sensitivity_wDistinction_PartialAsgmts" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Fail_Sensitivity_PartialClicks" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Fail_Sensitivity_PartialAsgmts" connectionId="32" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17294,27 +17286,27 @@
 </file>
 
 <file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Accuracy_Full" connectionId="37" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Fail_Sensitivity_PartialAsgmts" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Fail_Sensitivity_Full" connectionId="31" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Accuracy_PartialClicks" connectionId="39" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Fail_Sensitivity_Full" connectionId="43" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Accuracy_PartialClicks" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Fail_Sensitivity_wDistinction_PartialAsgmts" connectionId="35" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Fail_Sensitivity_wDistinction_PartialClicks" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Accuracy_Full" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Accuracy_Full" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Accuracy_PartialClicks" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Accuracy_PartialClicks" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17322,83 +17314,83 @@
 </file>
 
 <file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Accuracy_Full" connectionId="37" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Fail_Sensitivity_PartialClicks" connectionId="45" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Accuracy_PartialAsgmts" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable36.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Accuracy_PartialClicks" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable37.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Fail_Sensitivity_Full" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable38.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Fail_Sensitivity_Full" connectionId="31" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable39.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Accuracy_PartialAsgmts" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Accuracy_wDistinction_Full" connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable40.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Fail_Sensitivity_PartialAsgmts" connectionId="44" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable41.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Fail_Sensitivity_Full" connectionId="43" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable42.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Accuracy_PartialAsgmts" connectionId="26" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable43.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Accuracy_Full" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable44.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Fail_Sensitivity_PartialClicks" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable45.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Fail_Sensitivity_Full" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable46.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Fail_Sensitivity_PartialAsgmts" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable47.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Accuracy_PartialAsgmts" connectionId="38" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable36.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Accuracy_PartialClicks" connectionId="39" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable37.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Accuracy_PartialClicks" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable38.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Fail_Sensitivity_Full" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable39.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Accuracy_Full" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Accuracy_wDistinction_Full" connectionId="40" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable40.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Fail_Sensitivity_PartialAsgmts" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable41.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Fail_Sensitivity_PartialAsgmts" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable42.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_Fail_Sensitivity_PartialClicks" connectionId="45" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable43.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Accuracy_PartialAsgmts" connectionId="26" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable44.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Fail_Sensitivity_PartialAsgmts" connectionId="32" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable45.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Accuracy_Full" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable46.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Accuracy_PartialClicks" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable47.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Accuracy_PartialAsgmts" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable48.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Fail_Sensitivity_Full" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Accuracy_Full" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Accuracy_wDistinction_Full" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Accuracy_wDistinction_Full" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Fail_Sensitivity_wDistinction_PartialAsgmts" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Accuracy_wDistinction_PartialAsgmts" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Accuracy_wDistinction_Full" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bayes_Accuracy_wDistinction_PartialAsgmts" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17406,7 +17398,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LogReg_Fail_Sensitivity_wDistinction_PartialAsgmts" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_Fail_Sensitivity_wDistinction_PartialAsgmts" connectionId="35" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17674,7 +17666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+    <sheetView topLeftCell="A71" workbookViewId="0">
       <selection activeCell="AD134" sqref="AD134"/>
     </sheetView>
   </sheetViews>
@@ -22189,8 +22181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL87"/>
   <sheetViews>
-    <sheetView topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="AB147" sqref="AB147"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="AC80" sqref="AC80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25788,12 +25780,12 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>0</v>
       </c>
@@ -25828,7 +25820,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>11</v>
       </c>
@@ -25877,7 +25869,7 @@
         <v>0.74659753726506806</v>
       </c>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>12</v>
       </c>
@@ -25926,7 +25918,7 @@
         <v>0.68512110726643594</v>
       </c>
     </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>13</v>
       </c>
@@ -25964,7 +25956,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>29</v>
       </c>
@@ -25972,7 +25964,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>0</v>
       </c>
@@ -26057,8 +26049,11 @@
       <c r="AE73" t="s">
         <v>32</v>
       </c>
+      <c r="AF73" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>11</v>
       </c>
@@ -26150,7 +26145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>12</v>
       </c>
@@ -26242,7 +26237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>13</v>
       </c>
@@ -26334,7 +26329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -26362,7 +26357,7 @@
       <c r="AD77" s="1"/>
       <c r="AE77" s="1"/>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -26376,6 +26371,9 @@
       <c r="L78" s="1"/>
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
+      <c r="Q78" t="s">
+        <v>11</v>
+      </c>
       <c r="R78" s="1"/>
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
@@ -26390,7 +26388,7 @@
       <c r="AD78" s="1"/>
       <c r="AE78" s="1"/>
     </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -26404,6 +26402,9 @@
       <c r="L79" s="1"/>
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
+      <c r="Q79" t="s">
+        <v>12</v>
+      </c>
       <c r="R79" s="1"/>
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
@@ -26418,7 +26419,7 @@
       <c r="AD79" s="1"/>
       <c r="AE79" s="1"/>
     </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -26432,19 +26433,54 @@
       <c r="L80" s="1"/>
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
-      <c r="R80" s="1"/>
-      <c r="S80" s="1"/>
-      <c r="T80" s="1"/>
-      <c r="U80" s="1"/>
-      <c r="V80" s="1"/>
-      <c r="W80" s="1"/>
-      <c r="X80" s="1"/>
-      <c r="Y80" s="1"/>
-      <c r="Z80" s="1"/>
-      <c r="AA80" s="1"/>
-      <c r="AB80" s="1"/>
-      <c r="AD80" s="1"/>
-      <c r="AE80" s="1"/>
+      <c r="Q80" t="s">
+        <v>13</v>
+      </c>
+      <c r="R80" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="S80" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="T80" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="U80" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="V80" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="W80" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="X80" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="Y80" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="Z80" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="AA80" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AB80" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="AC80" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD80" s="1">
+        <v>100</v>
+      </c>
+      <c r="AE80" s="1">
+        <v>32</v>
+      </c>
+      <c r="AF80" s="1">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="81" spans="1:31" x14ac:dyDescent="0.25">
       <c r="R81" s="1"/>
